--- a/Lit_Review_Fig/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/Lit_Review_Fig/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-modeling/Lit_Review_Fig/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FA4A37-703A-8744-BC91-AF07C7B2190D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A775F8A7-556D-0A40-8CF8-BC34B9FA2EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
+    <workbookView xWindow="34660" yWindow="1960" windowWidth="30240" windowHeight="17360" activeTab="2" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
   <sheets>
     <sheet name="Study_info" sheetId="2" r:id="rId1"/>
     <sheet name="Study_info_filtered" sheetId="7" r:id="rId2"/>
-    <sheet name="Exclusion" sheetId="3" r:id="rId3"/>
-    <sheet name="Original_meta_analysis" sheetId="4" r:id="rId4"/>
+    <sheet name="Study_info_filtered_take_one" sheetId="8" r:id="rId3"/>
+    <sheet name="Exclusion" sheetId="3" r:id="rId4"/>
+    <sheet name="Original_meta_analysis" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4687" uniqueCount="1380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5254" uniqueCount="1380">
   <si>
     <t>Study</t>
   </si>
@@ -14094,8 +14095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC045B23-D4C7-1A45-9D95-CD948EAB3A4D}">
   <dimension ref="A1:AQ321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23451,6 +23452,2633 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90229B5-CF41-C440-BFCC-1DBDEC7AB338}">
+  <dimension ref="A1:AQ49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:43" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>727</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1998</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="N2" s="19">
+        <v>48.762999999999998</v>
+      </c>
+      <c r="O2" s="19">
+        <v>-114.226</v>
+      </c>
+      <c r="P2" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="U2" s="15"/>
+    </row>
+    <row r="3" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="B3" s="15">
+        <v>1992</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>733</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>734</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="15"/>
+      <c r="M3" s="21" t="s">
+        <v>731</v>
+      </c>
+      <c r="N3" s="22">
+        <v>49.667000000000002</v>
+      </c>
+      <c r="O3" s="22">
+        <v>-93.733000000000004</v>
+      </c>
+      <c r="P3" s="23">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>732</v>
+      </c>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="U3" s="15"/>
+    </row>
+    <row r="4" spans="1:43" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>740</v>
+      </c>
+      <c r="B4" s="15">
+        <v>2008</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>741</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15" t="s">
+        <v>742</v>
+      </c>
+      <c r="N4" s="15">
+        <v>49.616667</v>
+      </c>
+      <c r="O4" s="15">
+        <v>-114.666667</v>
+      </c>
+      <c r="P4" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>744</v>
+      </c>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="U4" s="15"/>
+    </row>
+    <row r="5" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>750</v>
+      </c>
+      <c r="B5" s="27">
+        <v>2008</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>786</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>751</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>752</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="27"/>
+      <c r="M5" s="21" t="s">
+        <v>753</v>
+      </c>
+      <c r="N5" s="22">
+        <v>48.789253000000002</v>
+      </c>
+      <c r="O5" s="22">
+        <v>-113.79626500000001</v>
+      </c>
+      <c r="P5" s="23">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="23" t="s">
+        <v>754</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="27" t="s">
+        <v>755</v>
+      </c>
+      <c r="U5" s="27"/>
+    </row>
+    <row r="6" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>781</v>
+      </c>
+      <c r="B6" s="15">
+        <v>2009</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>785</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="N6" s="15">
+        <v>65.150000000000006</v>
+      </c>
+      <c r="O6" s="15">
+        <v>-147.5</v>
+      </c>
+      <c r="P6" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="U6" s="15"/>
+    </row>
+    <row r="7" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>790</v>
+      </c>
+      <c r="B7" s="15">
+        <v>2014</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>772</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="27"/>
+      <c r="M7" s="36" t="s">
+        <v>768</v>
+      </c>
+      <c r="N7" s="15">
+        <v>40.702464999999997</v>
+      </c>
+      <c r="O7" s="15">
+        <v>-105.241646</v>
+      </c>
+      <c r="P7" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="U7" s="15"/>
+    </row>
+    <row r="8" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
+        <v>827</v>
+      </c>
+      <c r="B8" s="27">
+        <v>2016</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>693</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>828</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>829</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>834</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>830</v>
+      </c>
+      <c r="N8" s="22">
+        <v>40.353888888</v>
+      </c>
+      <c r="O8" s="22">
+        <v>-105.583611111</v>
+      </c>
+      <c r="P8" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="23" t="s">
+        <v>831</v>
+      </c>
+      <c r="R8" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" s="27" t="s">
+        <v>832</v>
+      </c>
+      <c r="U8" s="27"/>
+    </row>
+    <row r="9" spans="1:43" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>849</v>
+      </c>
+      <c r="B9" s="15">
+        <v>2018</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15" t="s">
+        <v>850</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15">
+        <v>40.050263700000002</v>
+      </c>
+      <c r="O9" s="15">
+        <v>-105.3666599</v>
+      </c>
+      <c r="P9" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>851</v>
+      </c>
+      <c r="U9" s="15"/>
+    </row>
+    <row r="10" spans="1:43" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>872</v>
+      </c>
+      <c r="B10" s="15">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>874</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="41" t="s">
+        <v>875</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>876</v>
+      </c>
+      <c r="N10" s="15">
+        <v>38.512031</v>
+      </c>
+      <c r="O10" s="15">
+        <v>-122.097228</v>
+      </c>
+      <c r="P10" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>877</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>873</v>
+      </c>
+      <c r="U10" s="15"/>
+    </row>
+    <row r="11" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>882</v>
+      </c>
+      <c r="B11" s="15">
+        <v>2012</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15" t="s">
+        <v>884</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>885</v>
+      </c>
+      <c r="N11" s="15">
+        <v>38.896382000000003</v>
+      </c>
+      <c r="O11" s="15">
+        <v>-120.041629</v>
+      </c>
+      <c r="P11" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T11" s="15" t="s">
+        <v>888</v>
+      </c>
+      <c r="U11" s="15"/>
+    </row>
+    <row r="12" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>897</v>
+      </c>
+      <c r="B12" s="15">
+        <v>2019</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15" t="s">
+        <v>898</v>
+      </c>
+      <c r="U12" s="15"/>
+    </row>
+    <row r="13" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>925</v>
+      </c>
+      <c r="B13" s="15">
+        <v>2019</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E13" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>874</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15" t="s">
+        <v>927</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>928</v>
+      </c>
+      <c r="N13" s="15">
+        <v>37.534036999999998</v>
+      </c>
+      <c r="O13" s="15">
+        <v>-119.389139</v>
+      </c>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T13" s="15" t="s">
+        <v>926</v>
+      </c>
+      <c r="U13" s="15"/>
+    </row>
+    <row r="14" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>983</v>
+      </c>
+      <c r="B14" s="15">
+        <v>2019</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="E14" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15" t="s">
+        <v>986</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="N14" s="15">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="O14" s="15">
+        <v>-105.26552</v>
+      </c>
+      <c r="P14" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>985</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15" t="s">
+        <v>984</v>
+      </c>
+      <c r="U14" s="15"/>
+      <c r="AC14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ14" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B15" s="15">
+        <v>2015</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="E15" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>1185</v>
+      </c>
+      <c r="J15" s="49"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15">
+        <v>4</v>
+      </c>
+      <c r="M15" s="50" t="s">
+        <v>1187</v>
+      </c>
+      <c r="N15" s="15">
+        <v>44.910800000000002</v>
+      </c>
+      <c r="O15" s="15">
+        <v>-116.1031</v>
+      </c>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15" t="s">
+        <v>1186</v>
+      </c>
+      <c r="U15" s="15"/>
+    </row>
+    <row r="16" spans="1:43" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>936</v>
+      </c>
+      <c r="B16" s="29">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>937</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>938</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>939</v>
+      </c>
+      <c r="N16" s="29">
+        <v>69.166667000000004</v>
+      </c>
+      <c r="O16" s="29">
+        <v>-150.75</v>
+      </c>
+      <c r="P16" s="29">
+        <v>2</v>
+      </c>
+      <c r="R16" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T16" s="29" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="44" t="s">
+        <v>671</v>
+      </c>
+      <c r="B17" s="29">
+        <v>2011</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T17" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="U17" s="29"/>
+    </row>
+    <row r="18" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="B18" s="29">
+        <v>2000</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29" t="s">
+        <v>672</v>
+      </c>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="N18" s="69">
+        <v>44.257795999999999</v>
+      </c>
+      <c r="O18" s="44">
+        <v>-71.319730000000007</v>
+      </c>
+      <c r="P18" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="29" t="s">
+        <v>675</v>
+      </c>
+      <c r="U18" s="29"/>
+    </row>
+    <row r="19" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="B19" s="9">
+        <v>1992</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>669</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="U19" s="9"/>
+    </row>
+    <row r="20" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
+        <v>683</v>
+      </c>
+      <c r="B20" s="29">
+        <v>2003</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>686</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29" t="s">
+        <v>684</v>
+      </c>
+      <c r="N20" s="14">
+        <v>32.848999999999997</v>
+      </c>
+      <c r="O20" s="34">
+        <v>-108.593</v>
+      </c>
+      <c r="P20" s="29">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>685</v>
+      </c>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T20" s="29" t="s">
+        <v>687</v>
+      </c>
+      <c r="U20" s="29"/>
+    </row>
+    <row r="21" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="B21" s="29">
+        <v>2011</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>693</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>694</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>695</v>
+      </c>
+      <c r="N21" s="29">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="O21" s="29">
+        <v>-105.26552</v>
+      </c>
+      <c r="P21" s="29">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="29" t="s">
+        <v>690</v>
+      </c>
+      <c r="S21" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T21" s="29" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="29" t="s">
+        <v>711</v>
+      </c>
+      <c r="B22" s="29">
+        <v>2015</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29" t="s">
+        <v>708</v>
+      </c>
+      <c r="N22" s="29">
+        <v>40.033332999999999</v>
+      </c>
+      <c r="O22" s="29">
+        <v>-105.416667</v>
+      </c>
+      <c r="P22" s="29">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="29" t="s">
+        <v>709</v>
+      </c>
+      <c r="R22" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="S22" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T22" s="29" t="s">
+        <v>710</v>
+      </c>
+      <c r="U22" s="29"/>
+    </row>
+    <row r="23" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="29" t="s">
+        <v>720</v>
+      </c>
+      <c r="B23" s="29">
+        <v>2019</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29" t="s">
+        <v>721</v>
+      </c>
+      <c r="N23" s="29">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="O23" s="29">
+        <v>-105.26552</v>
+      </c>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="S23" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T23" s="29" t="s">
+        <v>1108</v>
+      </c>
+      <c r="U23" s="29"/>
+    </row>
+    <row r="24" spans="1:21" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="B24" s="8">
+        <v>2008</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8">
+        <v>-36.361749000000003</v>
+      </c>
+      <c r="O24" s="8">
+        <v>146.95765900000001</v>
+      </c>
+      <c r="P24" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>1379</v>
+      </c>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="U24" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="s">
+        <v>747</v>
+      </c>
+      <c r="B25" s="24">
+        <v>1991</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>669</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24" t="s">
+        <v>748</v>
+      </c>
+      <c r="U25" s="24"/>
+    </row>
+    <row r="26" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="s">
+        <v>763</v>
+      </c>
+      <c r="B26" s="29">
+        <v>2019</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>786</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="29" t="s">
+        <v>694</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29" t="s">
+        <v>721</v>
+      </c>
+      <c r="N26" s="29">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="O26" s="29">
+        <v>-105.26552</v>
+      </c>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="S26" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T26" s="29" t="s">
+        <v>1109</v>
+      </c>
+      <c r="U26" s="29"/>
+    </row>
+    <row r="27" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="29" t="s">
+        <v>766</v>
+      </c>
+      <c r="B27" s="29">
+        <v>2015</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>771</v>
+      </c>
+      <c r="J27" s="31" t="s">
+        <v>772</v>
+      </c>
+      <c r="K27" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="29">
+        <v>1</v>
+      </c>
+      <c r="M27" s="31" t="s">
+        <v>768</v>
+      </c>
+      <c r="N27" s="32">
+        <v>40.7159999</v>
+      </c>
+      <c r="O27" s="32">
+        <v>-105.23308400000001</v>
+      </c>
+      <c r="P27" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="Q27" s="33" t="s">
+        <v>769</v>
+      </c>
+      <c r="R27" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29" t="s">
+        <v>770</v>
+      </c>
+      <c r="U27" s="29"/>
+    </row>
+    <row r="28" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="24" t="s">
+        <v>793</v>
+      </c>
+      <c r="B28" s="24">
+        <v>1996</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>669</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24" t="s">
+        <v>748</v>
+      </c>
+      <c r="U28" s="24"/>
+    </row>
+    <row r="29" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="29" t="s">
+        <v>802</v>
+      </c>
+      <c r="B29" s="29">
+        <v>2015</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29" t="s">
+        <v>692</v>
+      </c>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="31" t="s">
+        <v>803</v>
+      </c>
+      <c r="N29" s="32">
+        <v>35.841000000000001</v>
+      </c>
+      <c r="O29" s="32">
+        <v>-106.5013</v>
+      </c>
+      <c r="P29" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="Q29" s="29" t="s">
+        <v>804</v>
+      </c>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T29" s="29" t="s">
+        <v>805</v>
+      </c>
+      <c r="U29" s="29"/>
+    </row>
+    <row r="30" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="29" t="s">
+        <v>836</v>
+      </c>
+      <c r="B30" s="29">
+        <v>2018</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29">
+        <v>3</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="N30" s="29">
+        <v>61.4</v>
+      </c>
+      <c r="O30" s="29">
+        <v>121.433333</v>
+      </c>
+      <c r="P30" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="Q30" s="29" t="s">
+        <v>743</v>
+      </c>
+      <c r="R30" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="U30" s="29"/>
+    </row>
+    <row r="31" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="B31" s="29">
+        <v>2020</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>844</v>
+      </c>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29" t="s">
+        <v>843</v>
+      </c>
+      <c r="M31" s="29" t="s">
+        <v>697</v>
+      </c>
+      <c r="N31" s="29">
+        <v>64.283332999999999</v>
+      </c>
+      <c r="O31" s="29">
+        <v>100.183333</v>
+      </c>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+    </row>
+    <row r="32" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="29" t="s">
+        <v>878</v>
+      </c>
+      <c r="B32" s="29">
+        <v>2013</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29" t="s">
+        <v>879</v>
+      </c>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29" t="s">
+        <v>880</v>
+      </c>
+      <c r="M32" s="29" t="s">
+        <v>697</v>
+      </c>
+      <c r="N32" s="29">
+        <v>64.25</v>
+      </c>
+      <c r="O32" s="29">
+        <v>100.166667</v>
+      </c>
+      <c r="P32" s="29">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+    </row>
+    <row r="33" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="29" t="s">
+        <v>910</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>911</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="M33" s="29" t="s">
+        <v>695</v>
+      </c>
+      <c r="N33" s="29">
+        <v>39.028229000000003</v>
+      </c>
+      <c r="O33" s="29">
+        <v>-105.17336299999999</v>
+      </c>
+      <c r="P33" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="29" t="s">
+        <v>914</v>
+      </c>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T33" s="29" t="s">
+        <v>915</v>
+      </c>
+      <c r="U33" s="29"/>
+    </row>
+    <row r="34" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="29" t="s">
+        <v>919</v>
+      </c>
+      <c r="B34" s="29">
+        <v>2012</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>692</v>
+      </c>
+      <c r="L34" s="29" t="s">
+        <v>920</v>
+      </c>
+      <c r="M34" s="29" t="s">
+        <v>921</v>
+      </c>
+      <c r="N34" s="29">
+        <v>-36.474885</v>
+      </c>
+      <c r="O34" s="29">
+        <v>147.244891</v>
+      </c>
+      <c r="P34" s="29">
+        <v>9</v>
+      </c>
+      <c r="S34" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T34" s="29" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="B35" s="29">
+        <v>1998</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="29" t="s">
+        <v>933</v>
+      </c>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29" t="s">
+        <v>931</v>
+      </c>
+      <c r="M35" s="29" t="s">
+        <v>932</v>
+      </c>
+      <c r="N35" s="29">
+        <v>44.512999999999998</v>
+      </c>
+      <c r="O35" s="29">
+        <v>-109.98</v>
+      </c>
+      <c r="P35" s="29">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="29" t="s">
+        <v>934</v>
+      </c>
+      <c r="R35" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="S35" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T35" s="29" t="s">
+        <v>935</v>
+      </c>
+      <c r="U35" s="29"/>
+    </row>
+    <row r="36" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="29" t="s">
+        <v>949</v>
+      </c>
+      <c r="B36" s="29">
+        <v>2015</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="L36" s="29" t="s">
+        <v>931</v>
+      </c>
+      <c r="M36" s="29" t="s">
+        <v>950</v>
+      </c>
+      <c r="N36" s="29">
+        <v>44.578524999999999</v>
+      </c>
+      <c r="O36" s="29">
+        <v>-115.66604</v>
+      </c>
+      <c r="P36" s="29">
+        <v>4</v>
+      </c>
+      <c r="S36" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T36" s="29" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="29" t="s">
+        <v>958</v>
+      </c>
+      <c r="B37" s="29">
+        <v>2012</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29">
+        <v>44.578524999999999</v>
+      </c>
+      <c r="O37" s="29">
+        <v>-115.66604</v>
+      </c>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29" t="s">
+        <v>959</v>
+      </c>
+      <c r="U37" s="29"/>
+    </row>
+    <row r="38" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="29" t="s">
+        <v>987</v>
+      </c>
+      <c r="B38" s="29">
+        <v>2017</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="M38" s="29" t="s">
+        <v>989</v>
+      </c>
+      <c r="N38" s="72">
+        <v>38.317307999999997</v>
+      </c>
+      <c r="O38" s="72">
+        <v>-78.634135000000001</v>
+      </c>
+      <c r="P38" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="R38" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29" t="s">
+        <v>991</v>
+      </c>
+      <c r="U38" s="29"/>
+    </row>
+    <row r="39" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="29" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B39" s="29">
+        <v>2021</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29" t="s">
+        <v>1001</v>
+      </c>
+      <c r="U39" s="29"/>
+    </row>
+    <row r="40" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="29" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B40" s="29">
+        <v>2020</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="I40" s="29" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29" t="s">
+        <v>1003</v>
+      </c>
+      <c r="M40" s="29" t="s">
+        <v>1004</v>
+      </c>
+      <c r="N40" s="29">
+        <v>35</v>
+      </c>
+      <c r="O40" s="29">
+        <v>-83</v>
+      </c>
+      <c r="P40" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="R40" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="S40" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T40" s="29" t="s">
+        <v>1006</v>
+      </c>
+      <c r="U40" s="29"/>
+    </row>
+    <row r="41" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="29" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B41" s="29">
+        <v>2007</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29" t="s">
+        <v>1074</v>
+      </c>
+      <c r="M41" s="29" t="s">
+        <v>1075</v>
+      </c>
+      <c r="N41" s="29">
+        <v>44.355572000000002</v>
+      </c>
+      <c r="O41" s="29">
+        <v>-68.288216000000006</v>
+      </c>
+      <c r="P41" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29" t="s">
+        <v>1073</v>
+      </c>
+      <c r="U41" s="29"/>
+    </row>
+    <row r="42" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="24" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B42" s="24">
+        <v>2007</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>669</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="24"/>
+      <c r="T42" s="24" t="s">
+        <v>1078</v>
+      </c>
+      <c r="U42" s="24"/>
+    </row>
+    <row r="43" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="29" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B43" s="29">
+        <v>2022</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>692</v>
+      </c>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29" t="s">
+        <v>1084</v>
+      </c>
+      <c r="L43" s="29" t="s">
+        <v>1085</v>
+      </c>
+      <c r="M43" s="29" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N43" s="29">
+        <v>-30.813414999999999</v>
+      </c>
+      <c r="O43" s="29">
+        <v>152.51065800000001</v>
+      </c>
+      <c r="P43" s="29">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29" t="s">
+        <v>1086</v>
+      </c>
+      <c r="U43" s="29"/>
+    </row>
+    <row r="44" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="29" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B44" s="29">
+        <v>2021</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="I44" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="29" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K44" s="29" t="s">
+        <v>1093</v>
+      </c>
+      <c r="L44" s="29" t="s">
+        <v>1094</v>
+      </c>
+      <c r="M44" s="29" t="s">
+        <v>1097</v>
+      </c>
+      <c r="N44" s="29">
+        <v>40.262369999999997</v>
+      </c>
+      <c r="O44" s="29">
+        <v>-105.59080400000001</v>
+      </c>
+      <c r="P44" s="43">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29" t="s">
+        <v>1096</v>
+      </c>
+      <c r="U44" s="29"/>
+    </row>
+    <row r="45" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="29" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B45" s="29">
+        <v>2022</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="I45" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29" t="s">
+        <v>1159</v>
+      </c>
+      <c r="L45" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="M45" s="45" t="s">
+        <v>1154</v>
+      </c>
+      <c r="N45" s="29">
+        <v>-15.842302999999999</v>
+      </c>
+      <c r="O45" s="29">
+        <v>-47.873339999999999</v>
+      </c>
+      <c r="P45" s="29">
+        <v>1.33</v>
+      </c>
+      <c r="Q45" s="29" t="s">
+        <v>1155</v>
+      </c>
+      <c r="R45" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="S45" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T45" s="29" t="s">
+        <v>1156</v>
+      </c>
+      <c r="U45" s="29"/>
+    </row>
+    <row r="46" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="29" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B46" s="29">
+        <v>2023</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="I46" s="29" t="s">
+        <v>1169</v>
+      </c>
+      <c r="J46" s="29"/>
+      <c r="K46" s="47" t="s">
+        <v>1167</v>
+      </c>
+      <c r="L46" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="M46" s="29" t="s">
+        <v>1168</v>
+      </c>
+      <c r="N46" s="29">
+        <v>38.916015999999999</v>
+      </c>
+      <c r="O46" s="29">
+        <v>-120.281718</v>
+      </c>
+      <c r="P46" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q46" s="29" t="s">
+        <v>1171</v>
+      </c>
+      <c r="R46" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29" t="s">
+        <v>1170</v>
+      </c>
+      <c r="U46" s="29"/>
+    </row>
+    <row r="47" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="29" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B47" s="29">
+        <v>2023</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>692</v>
+      </c>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29" t="s">
+        <v>1177</v>
+      </c>
+      <c r="L47" s="29" t="s">
+        <v>1178</v>
+      </c>
+      <c r="M47" s="48" t="s">
+        <v>1176</v>
+      </c>
+      <c r="N47" s="29">
+        <v>35.890813000000001</v>
+      </c>
+      <c r="O47" s="29">
+        <v>-106.540854</v>
+      </c>
+      <c r="P47" s="29">
+        <v>9</v>
+      </c>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="S47" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T47" s="29" t="s">
+        <v>1179</v>
+      </c>
+      <c r="U47" s="29"/>
+    </row>
+    <row r="48" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="53" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B48" s="29">
+        <v>2022</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>494</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29" t="s">
+        <v>1196</v>
+      </c>
+      <c r="L48" s="29" t="s">
+        <v>1197</v>
+      </c>
+      <c r="M48" s="29" t="s">
+        <v>1199</v>
+      </c>
+      <c r="N48" s="29">
+        <v>40.370868000000002</v>
+      </c>
+      <c r="O48" s="29">
+        <v>-8.0868789999999997</v>
+      </c>
+      <c r="P48" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="S48" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T48" s="29" t="s">
+        <v>1198</v>
+      </c>
+      <c r="U48" s="29"/>
+    </row>
+    <row r="49" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="64" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B49" s="24">
+        <v>1987</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>652</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>669</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G49" s="65"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="S49" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="T49" s="24" t="s">
+        <v>1367</v>
+      </c>
+      <c r="U49" s="24"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F17" xr:uid="{4DE518C5-B805-7149-874D-147829C226A6}">
+      <formula1>"No fire event, no DOC/NO3, No river, Prescribed Burn, Maybe"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:F22" xr:uid="{7EA4BDB4-F220-C547-B8CA-89D110334B7E}">
+      <formula1>"No fire event, no DOC/NO3, No river, Prescribed Burn, Wrong study design, Maybe"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23:F49" xr:uid="{F890B568-ED04-E44F-A104-84F8712D15A4}">
+      <formula1>"Included, No fire event, no DOC/NO3, No river, Prescribed Burn, Wrong study design, Maybe"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4EDC603-3282-6340-BD81-0DFA981250B6}">
   <dimension ref="B2:D8"/>
   <sheetViews>
@@ -23504,7 +26132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6601E5-1AF6-2742-B70F-8EB10EC414EE}">
   <dimension ref="A1:G32"/>
   <sheetViews>

--- a/Lit_Review_Fig/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/Lit_Review_Fig/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-modeling/Lit_Review_Fig/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A775F8A7-556D-0A40-8CF8-BC34B9FA2EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DF4E397-DDE7-BF4E-9E6B-7B59BB406D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34660" yWindow="1960" windowWidth="30240" windowHeight="17360" activeTab="2" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
+    <workbookView xWindow="38920" yWindow="2200" windowWidth="30240" windowHeight="17360" activeTab="3" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
   <sheets>
     <sheet name="Study_info" sheetId="2" r:id="rId1"/>
     <sheet name="Study_info_filtered" sheetId="7" r:id="rId2"/>
-    <sheet name="Study_info_filtered_take_one" sheetId="8" r:id="rId3"/>
-    <sheet name="Exclusion" sheetId="3" r:id="rId4"/>
-    <sheet name="Original_meta_analysis" sheetId="4" r:id="rId5"/>
+    <sheet name="Study_info_filtered_V1" sheetId="8" r:id="rId3"/>
+    <sheet name="Study_info_filtered_V2" sheetId="9" r:id="rId4"/>
+    <sheet name="Exclusion" sheetId="3" r:id="rId5"/>
+    <sheet name="Original_meta_analysis" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5254" uniqueCount="1380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5743" uniqueCount="1383">
   <si>
     <t>Study</t>
   </si>
@@ -4258,6 +4259,15 @@
   </si>
   <si>
     <t>3 monthly concentrations</t>
+  </si>
+  <si>
+    <t>Four mile canyon - Colorado</t>
+  </si>
+  <si>
+    <t>Nantahala National Forest-NC</t>
+  </si>
+  <si>
+    <t>In_git_studies_folder</t>
   </si>
 </sst>
 </file>
@@ -4520,7 +4530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -4610,6 +4620,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4929,7 +4940,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14096,7 +14107,7 @@
   <dimension ref="A1:AQ321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD49"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23455,8 +23466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90229B5-CF41-C440-BFCC-1DBDEC7AB338}">
   <dimension ref="A1:AQ49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:U49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26079,6 +26090,2100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AC9E00-AE6F-C745-827A-7F2C45C3ED66}">
+  <dimension ref="A1:AA42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18:P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="73"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="73" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="73"/>
+      <c r="B2" s="15" t="s">
+        <v>727</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1998</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="18"/>
+      <c r="N2" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="O2" s="19">
+        <v>48.762999999999998</v>
+      </c>
+      <c r="P2" s="19">
+        <v>-114.226</v>
+      </c>
+      <c r="Q2" s="20">
+        <v>5</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="73"/>
+      <c r="B3" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1992</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>733</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>734</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>731</v>
+      </c>
+      <c r="O3" s="22">
+        <v>49.667000000000002</v>
+      </c>
+      <c r="P3" s="22">
+        <v>-93.733000000000004</v>
+      </c>
+      <c r="Q3" s="23">
+        <v>15</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>732</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="73"/>
+      <c r="B4" s="15" t="s">
+        <v>740</v>
+      </c>
+      <c r="C4" s="15">
+        <v>2008</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>741</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>742</v>
+      </c>
+      <c r="O4" s="15">
+        <v>49.616667</v>
+      </c>
+      <c r="P4" s="15">
+        <v>-114.666667</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>3</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>744</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="73"/>
+      <c r="B5" s="27" t="s">
+        <v>750</v>
+      </c>
+      <c r="C5" s="27">
+        <v>2008</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>786</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>751</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>752</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="27"/>
+      <c r="N5" s="21" t="s">
+        <v>753</v>
+      </c>
+      <c r="O5" s="22">
+        <v>48.789253000000002</v>
+      </c>
+      <c r="P5" s="22">
+        <v>-113.79626500000001</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>4</v>
+      </c>
+      <c r="R5" s="23" t="s">
+        <v>754</v>
+      </c>
+      <c r="S5" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" s="27" t="s">
+        <v>755</v>
+      </c>
+      <c r="V5" s="27"/>
+    </row>
+    <row r="6" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="73"/>
+      <c r="B6" s="15" t="s">
+        <v>781</v>
+      </c>
+      <c r="C6" s="15">
+        <v>2009</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>785</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="O6" s="15">
+        <v>65.150000000000006</v>
+      </c>
+      <c r="P6" s="15">
+        <v>-147.5</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>3</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="73"/>
+      <c r="B7" s="15" t="s">
+        <v>790</v>
+      </c>
+      <c r="C7" s="15">
+        <v>2014</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>772</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="27"/>
+      <c r="N7" s="36" t="s">
+        <v>768</v>
+      </c>
+      <c r="O7" s="15">
+        <v>40.702464999999997</v>
+      </c>
+      <c r="P7" s="15">
+        <v>-105.241646</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>1</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="U7" s="15" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="73"/>
+      <c r="B8" s="27" t="s">
+        <v>827</v>
+      </c>
+      <c r="C8" s="27">
+        <v>2016</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>693</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>828</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>829</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>834</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>830</v>
+      </c>
+      <c r="O8" s="22">
+        <v>40.353888888</v>
+      </c>
+      <c r="P8" s="22">
+        <v>-105.583611111</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>2</v>
+      </c>
+      <c r="R8" s="23" t="s">
+        <v>831</v>
+      </c>
+      <c r="S8" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" s="27" t="s">
+        <v>832</v>
+      </c>
+      <c r="V8" s="27"/>
+    </row>
+    <row r="9" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="73"/>
+      <c r="B9" s="15" t="s">
+        <v>849</v>
+      </c>
+      <c r="C9" s="15">
+        <v>2018</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>850</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O9" s="15">
+        <v>40.050263700000002</v>
+      </c>
+      <c r="P9" s="15">
+        <v>-105.3666599</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>5</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="U9" s="15" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="73"/>
+      <c r="B10" s="15" t="s">
+        <v>872</v>
+      </c>
+      <c r="C10" s="15">
+        <v>2020</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>874</v>
+      </c>
+      <c r="M10" s="41" t="s">
+        <v>875</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>876</v>
+      </c>
+      <c r="O10" s="15">
+        <v>38.512031</v>
+      </c>
+      <c r="P10" s="15">
+        <v>-122.097228</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>3</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>877</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="U10" s="15" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="73"/>
+      <c r="B11" s="15" t="s">
+        <v>882</v>
+      </c>
+      <c r="C11" s="15">
+        <v>2012</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>884</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>885</v>
+      </c>
+      <c r="O11" s="15">
+        <v>38.896382000000003</v>
+      </c>
+      <c r="P11" s="15">
+        <v>-120.041629</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>2</v>
+      </c>
+      <c r="T11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="73"/>
+      <c r="B12" s="15" t="s">
+        <v>897</v>
+      </c>
+      <c r="C12" s="15">
+        <v>2019</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F12" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="15" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="73"/>
+      <c r="B13" s="15" t="s">
+        <v>925</v>
+      </c>
+      <c r="C13" s="15">
+        <v>2019</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="F13" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>874</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>927</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>928</v>
+      </c>
+      <c r="O13" s="15">
+        <v>37.534036999999998</v>
+      </c>
+      <c r="P13" s="15">
+        <v>-119.389139</v>
+      </c>
+      <c r="S13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="U13" s="15" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="73"/>
+      <c r="B14" s="15" t="s">
+        <v>983</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2019</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="F14" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>986</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="O14" s="15">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="P14" s="15">
+        <v>-105.26552</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>2</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>985</v>
+      </c>
+      <c r="S14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="U14" s="15" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="73"/>
+      <c r="B15" s="27" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2015</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="F15" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>1185</v>
+      </c>
+      <c r="K15" s="49"/>
+      <c r="M15" s="15">
+        <v>4</v>
+      </c>
+      <c r="N15" s="50" t="s">
+        <v>1187</v>
+      </c>
+      <c r="O15" s="15">
+        <v>44.910800000000002</v>
+      </c>
+      <c r="P15" s="15">
+        <v>-116.1031</v>
+      </c>
+      <c r="S15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="U15" s="15" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="73" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>936</v>
+      </c>
+      <c r="C16" s="29">
+        <v>2021</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>937</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>938</v>
+      </c>
+      <c r="N16" s="29" t="s">
+        <v>939</v>
+      </c>
+      <c r="O16" s="29">
+        <v>69.166667000000004</v>
+      </c>
+      <c r="P16" s="29">
+        <v>-150.75</v>
+      </c>
+      <c r="Q16" s="29">
+        <v>2</v>
+      </c>
+      <c r="S16" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U16" s="29" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="73"/>
+      <c r="B17" s="44" t="s">
+        <v>671</v>
+      </c>
+      <c r="C17" s="29">
+        <v>2011</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U17" s="29" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="73"/>
+      <c r="B18" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="C18" s="29">
+        <v>2000</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>672</v>
+      </c>
+      <c r="N18" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="O18" s="69">
+        <v>44.257795999999999</v>
+      </c>
+      <c r="P18" s="44">
+        <v>-71.319730000000007</v>
+      </c>
+      <c r="Q18" s="29">
+        <v>1</v>
+      </c>
+      <c r="R18" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="29" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="73"/>
+      <c r="B19" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1992</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>669</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="V19" s="9"/>
+    </row>
+    <row r="20" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="73"/>
+      <c r="B20" s="29" t="s">
+        <v>683</v>
+      </c>
+      <c r="C20" s="29">
+        <v>2003</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>686</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="29" t="s">
+        <v>684</v>
+      </c>
+      <c r="O20" s="14">
+        <v>32.848999999999997</v>
+      </c>
+      <c r="P20" s="34">
+        <v>-108.593</v>
+      </c>
+      <c r="Q20" s="29">
+        <v>5</v>
+      </c>
+      <c r="R20" s="29" t="s">
+        <v>685</v>
+      </c>
+      <c r="T20" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U20" s="29" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="73"/>
+      <c r="B21" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="C21" s="29">
+        <v>2011</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>693</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>694</v>
+      </c>
+      <c r="L21" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="29" t="s">
+        <v>695</v>
+      </c>
+      <c r="O21" s="29">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="P21" s="29">
+        <v>-105.26552</v>
+      </c>
+      <c r="Q21" s="29">
+        <v>5</v>
+      </c>
+      <c r="R21" s="29" t="s">
+        <v>690</v>
+      </c>
+      <c r="T21" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U21" s="29" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="73"/>
+      <c r="B22" s="29" t="s">
+        <v>711</v>
+      </c>
+      <c r="C22" s="29">
+        <v>2015</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="L22" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="29" t="s">
+        <v>708</v>
+      </c>
+      <c r="O22" s="29">
+        <v>40.033332999999999</v>
+      </c>
+      <c r="P22" s="29">
+        <v>-105.416667</v>
+      </c>
+      <c r="Q22" s="29">
+        <v>3</v>
+      </c>
+      <c r="R22" s="29" t="s">
+        <v>709</v>
+      </c>
+      <c r="S22" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T22" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U22" s="29" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="73"/>
+      <c r="B23" s="29" t="s">
+        <v>720</v>
+      </c>
+      <c r="C23" s="29">
+        <v>2019</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="29" t="s">
+        <v>721</v>
+      </c>
+      <c r="O23" s="29">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="P23" s="29">
+        <v>-105.26552</v>
+      </c>
+      <c r="S23" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T23" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U23" s="29" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="73"/>
+      <c r="B24" s="24" t="s">
+        <v>747</v>
+      </c>
+      <c r="C24" s="24">
+        <v>1991</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>669</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>1102</v>
+      </c>
+      <c r="U24" s="24" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="73"/>
+      <c r="B25" s="29" t="s">
+        <v>763</v>
+      </c>
+      <c r="C25" s="29">
+        <v>2019</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="37" t="s">
+        <v>786</v>
+      </c>
+      <c r="J25" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="29" t="s">
+        <v>694</v>
+      </c>
+      <c r="L25" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="29" t="s">
+        <v>721</v>
+      </c>
+      <c r="O25" s="29">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="P25" s="29">
+        <v>-105.26552</v>
+      </c>
+      <c r="S25" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="29" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="73"/>
+      <c r="B26" s="29" t="s">
+        <v>766</v>
+      </c>
+      <c r="C26" s="29">
+        <v>2015</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="J26" s="31" t="s">
+        <v>771</v>
+      </c>
+      <c r="K26" s="31" t="s">
+        <v>772</v>
+      </c>
+      <c r="L26" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="29">
+        <v>1</v>
+      </c>
+      <c r="N26" s="31" t="s">
+        <v>768</v>
+      </c>
+      <c r="O26" s="32">
+        <v>40.7159999</v>
+      </c>
+      <c r="P26" s="32">
+        <v>-105.23308400000001</v>
+      </c>
+      <c r="Q26" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="R26" s="33" t="s">
+        <v>769</v>
+      </c>
+      <c r="S26" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U26" s="29" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="73"/>
+      <c r="B27" s="24" t="s">
+        <v>793</v>
+      </c>
+      <c r="C27" s="24">
+        <v>1996</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>669</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>1102</v>
+      </c>
+      <c r="U27" s="24" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="73"/>
+      <c r="B28" s="29" t="s">
+        <v>802</v>
+      </c>
+      <c r="C28" s="29">
+        <v>2015</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>692</v>
+      </c>
+      <c r="N28" s="31" t="s">
+        <v>803</v>
+      </c>
+      <c r="O28" s="32">
+        <v>35.841000000000001</v>
+      </c>
+      <c r="P28" s="32">
+        <v>-106.5013</v>
+      </c>
+      <c r="Q28" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="R28" s="29" t="s">
+        <v>804</v>
+      </c>
+      <c r="T28" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U28" s="29" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="73"/>
+      <c r="B29" s="29" t="s">
+        <v>836</v>
+      </c>
+      <c r="C29" s="29">
+        <v>2018</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="M29" s="29">
+        <v>3</v>
+      </c>
+      <c r="N29" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="O29" s="29">
+        <v>61.4</v>
+      </c>
+      <c r="P29" s="29">
+        <v>121.433333</v>
+      </c>
+      <c r="Q29" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="R29" s="29" t="s">
+        <v>743</v>
+      </c>
+      <c r="S29" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U29" s="29" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="73"/>
+      <c r="B30" s="29" t="s">
+        <v>910</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>911</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="N30" s="29" t="s">
+        <v>695</v>
+      </c>
+      <c r="O30" s="29">
+        <v>39.028229000000003</v>
+      </c>
+      <c r="P30" s="29">
+        <v>-105.17336299999999</v>
+      </c>
+      <c r="Q30" s="29">
+        <v>2</v>
+      </c>
+      <c r="R30" s="29" t="s">
+        <v>914</v>
+      </c>
+      <c r="T30" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U30" s="29" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="73"/>
+      <c r="B31" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="C31" s="29">
+        <v>1998</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="J31" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="29" t="s">
+        <v>933</v>
+      </c>
+      <c r="M31" s="29" t="s">
+        <v>931</v>
+      </c>
+      <c r="N31" s="29" t="s">
+        <v>932</v>
+      </c>
+      <c r="O31" s="29">
+        <v>44.512999999999998</v>
+      </c>
+      <c r="P31" s="29">
+        <v>-109.98</v>
+      </c>
+      <c r="Q31" s="29">
+        <v>4</v>
+      </c>
+      <c r="R31" s="29" t="s">
+        <v>934</v>
+      </c>
+      <c r="S31" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T31" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U31" s="29" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="73"/>
+      <c r="B32" s="29" t="s">
+        <v>949</v>
+      </c>
+      <c r="C32" s="29">
+        <v>2015</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I32" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="M32" s="29" t="s">
+        <v>931</v>
+      </c>
+      <c r="N32" s="29" t="s">
+        <v>950</v>
+      </c>
+      <c r="O32" s="29">
+        <v>44.578524999999999</v>
+      </c>
+      <c r="P32" s="29">
+        <v>-115.66604</v>
+      </c>
+      <c r="Q32" s="29">
+        <v>4</v>
+      </c>
+      <c r="T32" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U32" s="29" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="73"/>
+      <c r="B33" s="29" t="s">
+        <v>958</v>
+      </c>
+      <c r="C33" s="29">
+        <v>2012</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="M33" s="71"/>
+      <c r="N33" s="29" t="s">
+        <v>950</v>
+      </c>
+      <c r="O33" s="29">
+        <v>44.578524999999999</v>
+      </c>
+      <c r="P33" s="29">
+        <v>-115.66604</v>
+      </c>
+      <c r="U33" s="29" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="73"/>
+      <c r="B34" s="29" t="s">
+        <v>987</v>
+      </c>
+      <c r="C34" s="29">
+        <v>2017</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I34" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="M34" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="N34" s="29" t="s">
+        <v>989</v>
+      </c>
+      <c r="O34" s="72">
+        <v>38.317307999999997</v>
+      </c>
+      <c r="P34" s="72">
+        <v>-78.634135000000001</v>
+      </c>
+      <c r="Q34" s="29">
+        <v>1</v>
+      </c>
+      <c r="R34" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="S34" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U34" s="29" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="73"/>
+      <c r="B35" s="29" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C35" s="29">
+        <v>2021</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="O35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U35" s="29" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="73"/>
+      <c r="B36" s="29" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C36" s="29">
+        <v>2020</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I36" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="J36" s="29" t="s">
+        <v>1005</v>
+      </c>
+      <c r="M36" s="29" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N36" s="29" t="s">
+        <v>1381</v>
+      </c>
+      <c r="O36" s="29">
+        <v>35</v>
+      </c>
+      <c r="P36" s="29">
+        <v>-83</v>
+      </c>
+      <c r="Q36" s="29">
+        <v>2</v>
+      </c>
+      <c r="R36" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="S36" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T36" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U36" s="29" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="73"/>
+      <c r="B37" s="29" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C37" s="29">
+        <v>2007</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="M37" s="29" t="s">
+        <v>1074</v>
+      </c>
+      <c r="N37" s="29" t="s">
+        <v>1075</v>
+      </c>
+      <c r="O37" s="29">
+        <v>44.355572000000002</v>
+      </c>
+      <c r="P37" s="29">
+        <v>-68.288216000000006</v>
+      </c>
+      <c r="Q37" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="S37" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U37" s="29" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="73"/>
+      <c r="B38" s="24" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C38" s="24">
+        <v>2007</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>669</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>1102</v>
+      </c>
+      <c r="U38" s="24" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="73"/>
+      <c r="B39" s="29" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C39" s="29">
+        <v>2021</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="G39" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="J39" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="29" t="s">
+        <v>1095</v>
+      </c>
+      <c r="L39" s="29" t="s">
+        <v>1093</v>
+      </c>
+      <c r="M39" s="29" t="s">
+        <v>1094</v>
+      </c>
+      <c r="N39" s="29" t="s">
+        <v>1097</v>
+      </c>
+      <c r="O39" s="29">
+        <v>40.262369999999997</v>
+      </c>
+      <c r="P39" s="29">
+        <v>-105.59080400000001</v>
+      </c>
+      <c r="Q39" s="43">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="U39" s="29" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="73"/>
+      <c r="B40" s="29" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C40" s="29">
+        <v>2023</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="J40" s="29" t="s">
+        <v>1169</v>
+      </c>
+      <c r="L40" s="47" t="s">
+        <v>1167</v>
+      </c>
+      <c r="M40" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="N40" s="29" t="s">
+        <v>1168</v>
+      </c>
+      <c r="O40" s="29">
+        <v>38.916015999999999</v>
+      </c>
+      <c r="P40" s="29">
+        <v>-120.281718</v>
+      </c>
+      <c r="Q40" s="29">
+        <v>2</v>
+      </c>
+      <c r="R40" s="29" t="s">
+        <v>1171</v>
+      </c>
+      <c r="S40" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U40" s="29" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="73"/>
+      <c r="B41" s="29" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C41" s="29">
+        <v>2023</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="29" t="s">
+        <v>692</v>
+      </c>
+      <c r="L41" s="29" t="s">
+        <v>1177</v>
+      </c>
+      <c r="M41" s="29" t="s">
+        <v>1178</v>
+      </c>
+      <c r="N41" s="48" t="s">
+        <v>1176</v>
+      </c>
+      <c r="O41" s="29">
+        <v>35.890813000000001</v>
+      </c>
+      <c r="P41" s="29">
+        <v>-106.540854</v>
+      </c>
+      <c r="Q41" s="29">
+        <v>9</v>
+      </c>
+      <c r="S41" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T41" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U41" s="29" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="73"/>
+      <c r="B42" s="64" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C42" s="24">
+        <v>1987</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>652</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>669</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H42" s="65"/>
+      <c r="S42" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="T42" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="U42" s="24" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G18:G22" xr:uid="{1FFAF820-4EB2-5446-9CB6-5BBC536C303A}">
+      <formula1>"No fire event, no DOC/NO3, No river, Prescribed Burn, Wrong study design, Maybe"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G17" xr:uid="{2B60CAFB-3646-2347-A8C2-8CA45FC2F465}">
+      <formula1>"No fire event, no DOC/NO3, No river, Prescribed Burn, Maybe"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G23:G42" xr:uid="{9EDF3BD7-CE4F-CF43-B979-AEBE4326224A}">
+      <formula1>"Included, No fire event, no DOC/NO3, No river, Prescribed Burn, Wrong study design, Maybe"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4EDC603-3282-6340-BD81-0DFA981250B6}">
   <dimension ref="B2:D8"/>
   <sheetViews>
@@ -26132,7 +28237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6601E5-1AF6-2742-B70F-8EB10EC414EE}">
   <dimension ref="A1:G32"/>
   <sheetViews>

--- a/Lit_Review_Fig/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/Lit_Review_Fig/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-modeling/Lit_Review_Fig/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DF4E397-DDE7-BF4E-9E6B-7B59BB406D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D53725-8C4A-3246-8546-A012C1BD5E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38920" yWindow="2200" windowWidth="30240" windowHeight="17360" activeTab="3" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
+    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="3" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
   <sheets>
     <sheet name="Study_info" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5743" uniqueCount="1383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5790" uniqueCount="1388">
   <si>
     <t>Study</t>
   </si>
@@ -4269,6 +4269,21 @@
   <si>
     <t>In_git_studies_folder</t>
   </si>
+  <si>
+    <t>Adding?</t>
+  </si>
+  <si>
+    <t>This one is tough because we don't have Lat/long for the specific watersheds, also we have historic burns (80-110 years)</t>
+  </si>
+  <si>
+    <t>Leaning towards YES!</t>
+  </si>
+  <si>
+    <t>TOSSED! Leaning towards tossing due to multiple fire events and not a lot of available data</t>
+  </si>
+  <si>
+    <t>AMP says put in maybe pile just in case we want &gt;10 year data. Leaning towards tossing this one due to means during the season rather individual sampling dates. Do we want to take a mean of a mean across all of these to get a mean for the entire year and compare between burn and unburned? Probably not. Leaning towards tossing</t>
+  </si>
 </sst>
 </file>
 
@@ -4277,7 +4292,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4460,8 +4475,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4516,6 +4539,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFC5E0B3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4530,7 +4565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -4620,7 +4655,41 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -26091,19 +26160,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AC9E00-AE6F-C745-827A-7F2C45C3ED66}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18:P18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="73"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="22" max="22" width="255.6640625" style="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>1382</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -26166,12 +26237,15 @@
       <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="V1" s="75" t="s">
+        <v>1383</v>
+      </c>
       <c r="AA1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73"/>
+    <row r="2" spans="1:27" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2"/>
       <c r="B2" s="15" t="s">
         <v>727</v>
       </c>
@@ -26227,9 +26301,12 @@
       <c r="U2" s="15" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="73"/>
+      <c r="V2" s="76" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3"/>
       <c r="B3" s="15" t="s">
         <v>681</v>
       </c>
@@ -26284,9 +26361,12 @@
       <c r="U3" s="15" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="73"/>
+      <c r="V3" s="76" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4"/>
       <c r="B4" s="15" t="s">
         <v>740</v>
       </c>
@@ -26341,9 +26421,12 @@
       <c r="U4" s="15" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="73"/>
+      <c r="V4" s="76" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5"/>
       <c r="B5" s="27" t="s">
         <v>750</v>
       </c>
@@ -26402,10 +26485,12 @@
       <c r="U5" s="27" t="s">
         <v>755</v>
       </c>
-      <c r="V5" s="27"/>
-    </row>
-    <row r="6" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="73"/>
+      <c r="V5" s="77" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6"/>
       <c r="B6" s="15" t="s">
         <v>781</v>
       </c>
@@ -26457,9 +26542,12 @@
       <c r="U6" s="15" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="73"/>
+      <c r="V6" s="76" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7"/>
       <c r="B7" s="15" t="s">
         <v>790</v>
       </c>
@@ -26515,9 +26603,12 @@
       <c r="U7" s="15" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="73"/>
+      <c r="V7" s="76" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8"/>
       <c r="B8" s="27" t="s">
         <v>827</v>
       </c>
@@ -26578,10 +26669,12 @@
       <c r="U8" s="27" t="s">
         <v>832</v>
       </c>
-      <c r="V8" s="27"/>
-    </row>
-    <row r="9" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="73"/>
+      <c r="V8" s="77" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9"/>
       <c r="B9" s="15" t="s">
         <v>849</v>
       </c>
@@ -26624,9 +26717,12 @@
       <c r="U9" s="15" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="73"/>
+      <c r="V9" s="76" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10"/>
       <c r="B10" s="15" t="s">
         <v>872</v>
       </c>
@@ -26681,9 +26777,12 @@
       <c r="U10" s="15" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="73"/>
+      <c r="V10" s="76" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11"/>
       <c r="B11" s="15" t="s">
         <v>882</v>
       </c>
@@ -26732,9 +26831,12 @@
       <c r="U11" s="15" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="73"/>
+      <c r="V11" s="76" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12"/>
       <c r="B12" s="15" t="s">
         <v>897</v>
       </c>
@@ -26765,9 +26867,12 @@
       <c r="U12" s="15" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="73"/>
+      <c r="V12" s="76" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13"/>
       <c r="B13" s="15" t="s">
         <v>925</v>
       </c>
@@ -26816,9 +26921,12 @@
       <c r="U13" s="15" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="73"/>
+      <c r="V13" s="76" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14"/>
       <c r="B14" s="15" t="s">
         <v>983</v>
       </c>
@@ -26864,9 +26972,12 @@
       <c r="U14" s="15" t="s">
         <v>984</v>
       </c>
+      <c r="V14" s="76" t="s">
+        <v>1157</v>
+      </c>
     </row>
     <row r="15" spans="1:27" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="73"/>
+      <c r="A15"/>
       <c r="B15" s="27" t="s">
         <v>1184</v>
       </c>
@@ -26913,9 +27024,12 @@
       <c r="U15" s="15" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="73" t="s">
+      <c r="V15" s="76" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>1245</v>
       </c>
       <c r="B16" s="29" t="s">
@@ -26963,9 +27077,12 @@
       <c r="U16" s="29" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="73"/>
+      <c r="V16" s="82" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17"/>
       <c r="B17" s="44" t="s">
         <v>671</v>
       </c>
@@ -27008,63 +27125,85 @@
       <c r="U17" s="29" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="73"/>
-      <c r="B18" s="29" t="s">
+      <c r="V17" s="78" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>670</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="24">
         <v>2000</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="25" t="s">
         <v>669</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="25" t="s">
         <v>1102</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="29" t="s">
+      <c r="I18" s="24" t="s">
+        <v>786</v>
+      </c>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24" t="s">
         <v>672</v>
       </c>
-      <c r="N18" s="29" t="s">
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24" t="s">
         <v>673</v>
       </c>
-      <c r="O18" s="69">
+      <c r="O18" s="9">
         <v>44.257795999999999</v>
       </c>
-      <c r="P18" s="44">
+      <c r="P18" s="73">
         <v>-71.319730000000007</v>
       </c>
-      <c r="Q18" s="29">
+      <c r="Q18" s="24">
         <v>1</v>
       </c>
-      <c r="R18" s="29" t="s">
+      <c r="R18" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="S18" s="29" t="s">
+      <c r="S18" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="T18" s="29" t="s">
+      <c r="T18" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="U18" s="29" t="s">
+      <c r="U18" s="24" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="73"/>
+      <c r="V18" s="83" t="s">
+        <v>1384</v>
+      </c>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="24"/>
+    </row>
+    <row r="19" spans="1:40" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19"/>
       <c r="B19" s="9" t="s">
         <v>681</v>
       </c>
@@ -27098,67 +27237,96 @@
       <c r="U19" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="V19" s="9"/>
-    </row>
-    <row r="20" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="73"/>
-      <c r="B20" s="29" t="s">
+      <c r="V19" s="80" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>683</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="8">
         <v>2003</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="10" t="s">
         <v>1102</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="29" t="s">
+      <c r="I20" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="8" t="s">
         <v>686</v>
       </c>
-      <c r="L20" s="29" t="s">
+      <c r="L20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N20" s="29" t="s">
+      <c r="M20" s="8"/>
+      <c r="N20" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="84">
         <v>32.848999999999997</v>
       </c>
-      <c r="P20" s="34">
+      <c r="P20" s="85">
         <v>-108.593</v>
       </c>
-      <c r="Q20" s="29">
+      <c r="Q20" s="8">
         <v>5</v>
       </c>
-      <c r="R20" s="29" t="s">
+      <c r="R20" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="T20" s="29" t="s">
+      <c r="S20" s="8"/>
+      <c r="T20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="U20" s="29" t="s">
+      <c r="U20" s="8" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="73"/>
+      <c r="V20" s="86" t="s">
+        <v>1386</v>
+      </c>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="74"/>
+      <c r="AI20" s="74"/>
+      <c r="AJ20" s="74"/>
+      <c r="AK20" s="74"/>
+      <c r="AL20" s="74"/>
+      <c r="AM20" s="74"/>
+      <c r="AN20" s="74"/>
+    </row>
+    <row r="21" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1245</v>
+      </c>
       <c r="B21" s="29" t="s">
         <v>689</v>
       </c>
@@ -27213,9 +27381,14 @@
       <c r="U21" s="29" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="73"/>
+      <c r="V21" s="82" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1245</v>
+      </c>
       <c r="B22" s="29" t="s">
         <v>711</v>
       </c>
@@ -27267,57 +27440,81 @@
       <c r="U22" s="29" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="73"/>
-      <c r="B23" s="29" t="s">
+      <c r="V22" s="82" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>720</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="24">
         <v>2019</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="25" t="s">
         <v>669</v>
       </c>
-      <c r="G23" s="30" t="s">
+      <c r="G23" s="25" t="s">
         <v>1102</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="H23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="29" t="s">
+      <c r="I23" s="24" t="s">
         <v>786</v>
       </c>
-      <c r="J23" s="29" t="s">
+      <c r="J23" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="N23" s="29" t="s">
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24" t="s">
         <v>721</v>
       </c>
-      <c r="O23" s="29">
+      <c r="O23" s="24">
         <v>39.177683000000002</v>
       </c>
-      <c r="P23" s="29">
+      <c r="P23" s="24">
         <v>-105.26552</v>
       </c>
-      <c r="S23" s="29" t="s">
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="T23" s="29" t="s">
+      <c r="T23" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="U23" s="29" t="s">
+      <c r="U23" s="24" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="73"/>
+      <c r="V23" s="87" t="s">
+        <v>1387</v>
+      </c>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="24"/>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="24"/>
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="24"/>
+      <c r="AG23" s="24"/>
+    </row>
+    <row r="24" spans="1:40" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24"/>
       <c r="B24" s="24" t="s">
         <v>747</v>
       </c>
@@ -27339,9 +27536,12 @@
       <c r="U24" s="24" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="73"/>
+      <c r="V24" s="79" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25"/>
       <c r="B25" s="29" t="s">
         <v>763</v>
       </c>
@@ -27393,9 +27593,12 @@
       <c r="U25" s="29" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="73"/>
+      <c r="V25" s="78" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26"/>
       <c r="B26" s="29" t="s">
         <v>766</v>
       </c>
@@ -27453,9 +27656,12 @@
       <c r="U26" s="29" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="73"/>
+      <c r="V26" s="78" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27"/>
       <c r="B27" s="24" t="s">
         <v>793</v>
       </c>
@@ -27477,9 +27683,12 @@
       <c r="U27" s="24" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="73"/>
+      <c r="V27" s="79" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28"/>
       <c r="B28" s="29" t="s">
         <v>802</v>
       </c>
@@ -27522,9 +27731,12 @@
       <c r="U28" s="29" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="73"/>
+      <c r="V28" s="78" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29"/>
       <c r="B29" s="29" t="s">
         <v>836</v>
       </c>
@@ -27573,9 +27785,12 @@
       <c r="U29" s="29" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="73"/>
+      <c r="V29" s="78" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30"/>
       <c r="B30" s="29" t="s">
         <v>910</v>
       </c>
@@ -27624,9 +27839,12 @@
       <c r="U30" s="29" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="73"/>
+      <c r="V30" s="78" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31"/>
       <c r="B31" s="29" t="s">
         <v>929</v>
       </c>
@@ -27684,9 +27902,12 @@
       <c r="U31" s="29" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="73"/>
+      <c r="V31" s="78" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32"/>
       <c r="B32" s="29" t="s">
         <v>949</v>
       </c>
@@ -27729,9 +27950,12 @@
       <c r="U32" s="29" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="73"/>
+      <c r="V32" s="78" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33"/>
       <c r="B33" s="29" t="s">
         <v>958</v>
       </c>
@@ -27763,9 +27987,12 @@
       <c r="U33" s="29" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="73"/>
+      <c r="V33" s="78" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34"/>
       <c r="B34" s="29" t="s">
         <v>987</v>
       </c>
@@ -27811,9 +28038,12 @@
       <c r="U34" s="29" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="73"/>
+      <c r="V34" s="78" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35"/>
       <c r="B35" s="29" t="s">
         <v>1000</v>
       </c>
@@ -27844,9 +28074,12 @@
       <c r="U35" s="29" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="73"/>
+      <c r="V35" s="78" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36"/>
       <c r="B36" s="29" t="s">
         <v>1002</v>
       </c>
@@ -27898,9 +28131,12 @@
       <c r="U36" s="29" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="73"/>
+      <c r="V36" s="78" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37"/>
       <c r="B37" s="29" t="s">
         <v>1072</v>
       </c>
@@ -27946,9 +28182,12 @@
       <c r="U37" s="29" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="73"/>
+      <c r="V37" s="78" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38"/>
       <c r="B38" s="24" t="s">
         <v>1076</v>
       </c>
@@ -27970,9 +28209,12 @@
       <c r="U38" s="24" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="73"/>
+      <c r="V38" s="79" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39"/>
       <c r="B39" s="29" t="s">
         <v>1092</v>
       </c>
@@ -28024,9 +28266,12 @@
       <c r="U39" s="29" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="73"/>
+      <c r="V39" s="78" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40"/>
       <c r="B40" s="29" t="s">
         <v>1166</v>
       </c>
@@ -28081,9 +28326,12 @@
       <c r="U40" s="29" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="73"/>
+      <c r="V40" s="78" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41"/>
       <c r="B41" s="29" t="s">
         <v>1175</v>
       </c>
@@ -28135,9 +28383,12 @@
       <c r="U41" s="29" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="73"/>
+      <c r="V41" s="78" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42"/>
       <c r="B42" s="64" t="s">
         <v>1366</v>
       </c>
@@ -28165,6 +28416,9 @@
       </c>
       <c r="U42" s="24" t="s">
         <v>1367</v>
+      </c>
+      <c r="V42" s="79" t="s">
+        <v>1157</v>
       </c>
     </row>
   </sheetData>

--- a/Lit_Review_Fig/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/Lit_Review_Fig/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-modeling/Lit_Review_Fig/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D53725-8C4A-3246-8546-A012C1BD5E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70C953B-F98C-0E49-8180-75BBCC1D4227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="3" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
+    <workbookView xWindow="34100" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="3" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
   <sheets>
     <sheet name="Study_info" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5790" uniqueCount="1388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5793" uniqueCount="1388">
   <si>
     <t>Study</t>
   </si>
@@ -4689,7 +4689,7 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -26162,9 +26162,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AC9E00-AE6F-C745-827A-7F2C45C3ED66}">
   <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U25" sqref="U25"/>
+      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27541,7 +27541,9 @@
       </c>
     </row>
     <row r="25" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25"/>
+      <c r="A25" t="s">
+        <v>1245</v>
+      </c>
       <c r="B25" s="29" t="s">
         <v>763</v>
       </c>
@@ -27593,12 +27595,14 @@
       <c r="U25" s="29" t="s">
         <v>1109</v>
       </c>
-      <c r="V25" s="78" t="s">
-        <v>1157</v>
+      <c r="V25" s="82" t="s">
+        <v>1385</v>
       </c>
     </row>
     <row r="26" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26"/>
+      <c r="A26" t="s">
+        <v>1245</v>
+      </c>
       <c r="B26" s="29" t="s">
         <v>766</v>
       </c>
@@ -27656,8 +27660,8 @@
       <c r="U26" s="29" t="s">
         <v>770</v>
       </c>
-      <c r="V26" s="78" t="s">
-        <v>1157</v>
+      <c r="V26" s="82" t="s">
+        <v>1385</v>
       </c>
     </row>
     <row r="27" spans="1:40" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -27736,7 +27740,9 @@
       </c>
     </row>
     <row r="29" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29"/>
+      <c r="A29" t="s">
+        <v>1245</v>
+      </c>
       <c r="B29" s="29" t="s">
         <v>836</v>
       </c>
@@ -27785,8 +27791,8 @@
       <c r="U29" s="29" t="s">
         <v>838</v>
       </c>
-      <c r="V29" s="78" t="s">
-        <v>1157</v>
+      <c r="V29" s="82" t="s">
+        <v>1385</v>
       </c>
     </row>
     <row r="30" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">

--- a/Lit_Review_Fig/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/Lit_Review_Fig/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-modeling/Lit_Review_Fig/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70C953B-F98C-0E49-8180-75BBCC1D4227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE0E7C7-006F-CD4C-A8B2-C5C7E23DDF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34100" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="3" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="3" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
   <sheets>
     <sheet name="Study_info" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5793" uniqueCount="1388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5796" uniqueCount="1391">
   <si>
     <t>Study</t>
   </si>
@@ -4283,6 +4283,15 @@
   </si>
   <si>
     <t>AMP says put in maybe pile just in case we want &gt;10 year data. Leaning towards tossing this one due to means during the season rather individual sampling dates. Do we want to take a mean of a mean across all of these to get a mean for the entire year and compare between burn and unburned? Probably not. Leaning towards tossing</t>
+  </si>
+  <si>
+    <t>Leaning towards YES! Ask AMP for table 3</t>
+  </si>
+  <si>
+    <t>Leaning towards YES! Put in the maybe pile because of prescribed and wildfires. Make sure there arent compounding effects of these</t>
+  </si>
+  <si>
+    <t>This is the same paper from the previous stephan. Has the same data</t>
   </si>
 </sst>
 </file>
@@ -4565,7 +4574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -4690,6 +4699,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -26163,13 +26173,14 @@
   <dimension ref="A1:AN42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="255.6640625" style="81" customWidth="1"/>
   </cols>
   <sheetData>
@@ -27243,7 +27254,7 @@
     </row>
     <row r="20" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>683</v>
@@ -27795,62 +27806,66 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="30" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30"/>
-      <c r="B30" s="29" t="s">
+    <row r="30" spans="1:40" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="24" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B30" s="24" t="s">
         <v>910</v>
       </c>
-      <c r="C30" s="29" t="s">
-        <v>911</v>
-      </c>
-      <c r="D30" s="29" t="s">
+      <c r="C30" s="24">
+        <v>2008</v>
+      </c>
+      <c r="D30" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="25" t="s">
         <v>669</v>
       </c>
-      <c r="G30" s="30" t="s">
+      <c r="G30" s="25" t="s">
         <v>1102</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="29" t="s">
+      <c r="I30" s="24" t="s">
         <v>786</v>
       </c>
-      <c r="M30" s="29" t="s">
+      <c r="M30" s="24" t="s">
         <v>913</v>
       </c>
-      <c r="N30" s="29" t="s">
+      <c r="N30" s="24" t="s">
         <v>695</v>
       </c>
-      <c r="O30" s="29">
+      <c r="O30" s="24">
         <v>39.028229000000003</v>
       </c>
-      <c r="P30" s="29">
+      <c r="P30" s="24">
         <v>-105.17336299999999</v>
       </c>
-      <c r="Q30" s="29">
+      <c r="Q30" s="24">
         <v>2</v>
       </c>
-      <c r="R30" s="29" t="s">
+      <c r="R30" s="24" t="s">
         <v>914</v>
       </c>
-      <c r="T30" s="29" t="s">
+      <c r="T30" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="U30" s="29" t="s">
+      <c r="U30" s="24" t="s">
         <v>915</v>
       </c>
-      <c r="V30" s="78" t="s">
-        <v>1157</v>
+      <c r="V30" s="83" t="s">
+        <v>1388</v>
       </c>
     </row>
     <row r="31" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31"/>
+      <c r="A31" t="s">
+        <v>1245</v>
+      </c>
       <c r="B31" s="29" t="s">
         <v>929</v>
       </c>
@@ -27908,93 +27923,97 @@
       <c r="U31" s="29" t="s">
         <v>935</v>
       </c>
-      <c r="V31" s="78" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="32" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32"/>
-      <c r="B32" s="29" t="s">
+      <c r="V31" s="82" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="24" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B32" s="24" t="s">
         <v>949</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="24">
         <v>2015</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="25" t="s">
         <v>669</v>
       </c>
-      <c r="G32" s="30" t="s">
+      <c r="G32" s="25" t="s">
         <v>1102</v>
       </c>
-      <c r="I32" s="29" t="s">
+      <c r="I32" s="24" t="s">
         <v>786</v>
       </c>
-      <c r="M32" s="29" t="s">
+      <c r="M32" s="24" t="s">
         <v>931</v>
       </c>
-      <c r="N32" s="29" t="s">
+      <c r="N32" s="24" t="s">
         <v>950</v>
       </c>
-      <c r="O32" s="29">
+      <c r="O32" s="24">
         <v>44.578524999999999</v>
       </c>
-      <c r="P32" s="29">
+      <c r="P32" s="24">
         <v>-115.66604</v>
       </c>
-      <c r="Q32" s="29">
+      <c r="Q32" s="24">
         <v>4</v>
       </c>
-      <c r="T32" s="29" t="s">
+      <c r="T32" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="U32" s="29" t="s">
+      <c r="U32" s="24" t="s">
         <v>951</v>
       </c>
-      <c r="V32" s="78" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33"/>
-      <c r="B33" s="29" t="s">
+      <c r="V32" s="83" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>958</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="8">
         <v>2012</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E33" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="G33" s="30" t="s">
+      <c r="G33" s="10" t="s">
         <v>1102</v>
       </c>
-      <c r="M33" s="71"/>
-      <c r="N33" s="29" t="s">
+      <c r="M33" s="88"/>
+      <c r="N33" s="8" t="s">
         <v>950</v>
       </c>
-      <c r="O33" s="29">
+      <c r="O33" s="8">
         <v>44.578524999999999</v>
       </c>
-      <c r="P33" s="29">
+      <c r="P33" s="8">
         <v>-115.66604</v>
       </c>
-      <c r="U33" s="29" t="s">
+      <c r="U33" s="8" t="s">
         <v>959</v>
       </c>
-      <c r="V33" s="78" t="s">
-        <v>1157</v>
+      <c r="V33" s="86" t="s">
+        <v>1390</v>
       </c>
     </row>
     <row r="34" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -28279,7 +28298,7 @@
     <row r="40" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40" s="29" t="s">
-        <v>1166</v>
+        <v>683</v>
       </c>
       <c r="C40" s="29">
         <v>2023</v>

--- a/Lit_Review_Fig/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/Lit_Review_Fig/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-modeling/Lit_Review_Fig/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE0E7C7-006F-CD4C-A8B2-C5C7E23DDF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEB9727-60C0-4F4A-9BD1-F2342A162F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="3" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5796" uniqueCount="1391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5799" uniqueCount="1393">
   <si>
     <t>Study</t>
   </si>
@@ -4292,6 +4292,13 @@
   </si>
   <si>
     <t>This is the same paper from the previous stephan. Has the same data</t>
+  </si>
+  <si>
+    <t>Fig. 3 has burned and unburned DOC data. The fire was from 1947, samples were collected in 1999 and 2000. Seventeen sample sites
+were from burned zones and 30 were from unburned zones. I don’t know which samples belong to which site other than burned vs. unburned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaning towards no due to how long ago the fire took place and not having specifcs on the the sites other than burn vs. unburn </t>
   </si>
 </sst>
 </file>
@@ -4574,7 +4581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -4700,6 +4707,14 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -26173,8 +26188,8 @@
   <dimension ref="A1:AN42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V42" sqref="V42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27977,7 +27992,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="33" spans="1:22" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>1246</v>
       </c>
@@ -28016,7 +28031,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34" s="29" t="s">
         <v>987</v>
@@ -28067,7 +28082,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="35" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35" s="29" t="s">
         <v>1000</v>
@@ -28103,8 +28118,10 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="36" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36"/>
+    <row r="36" spans="1:33" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1245</v>
+      </c>
       <c r="B36" s="29" t="s">
         <v>1002</v>
       </c>
@@ -28156,62 +28173,80 @@
       <c r="U36" s="29" t="s">
         <v>1006</v>
       </c>
-      <c r="V36" s="78" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37"/>
-      <c r="B37" s="29" t="s">
+      <c r="V36" s="82" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B37" s="89" t="s">
         <v>1072</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C37" s="89">
         <v>2007</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="89" t="s">
         <v>399</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="E37" s="89" t="s">
         <v>400</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="90" t="s">
         <v>669</v>
       </c>
-      <c r="G37" s="30" t="s">
+      <c r="G37" s="90" t="s">
         <v>1102</v>
       </c>
-      <c r="H37" s="29" t="s">
+      <c r="H37" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="I37" s="29" t="s">
+      <c r="I37" s="89" t="s">
         <v>786</v>
       </c>
-      <c r="M37" s="29" t="s">
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="89" t="s">
         <v>1074</v>
       </c>
-      <c r="N37" s="29" t="s">
+      <c r="N37" s="89" t="s">
         <v>1075</v>
       </c>
-      <c r="O37" s="29">
+      <c r="O37" s="89">
         <v>44.355572000000002</v>
       </c>
-      <c r="P37" s="29">
+      <c r="P37" s="89">
         <v>-68.288216000000006</v>
       </c>
-      <c r="Q37" s="29">
+      <c r="Q37" s="89">
         <v>0.75</v>
       </c>
-      <c r="S37" s="29" t="s">
+      <c r="R37" s="89"/>
+      <c r="S37" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="U37" s="29" t="s">
-        <v>1073</v>
-      </c>
-      <c r="V37" s="78" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="T37" s="89"/>
+      <c r="U37" s="91" t="s">
+        <v>1391</v>
+      </c>
+      <c r="V37" s="92" t="s">
+        <v>1392</v>
+      </c>
+      <c r="W37" s="89"/>
+      <c r="X37" s="89"/>
+      <c r="Y37" s="89"/>
+      <c r="Z37" s="89"/>
+      <c r="AA37" s="89"/>
+      <c r="AB37" s="89"/>
+      <c r="AC37" s="89"/>
+      <c r="AD37" s="89"/>
+      <c r="AE37" s="89"/>
+      <c r="AF37" s="89"/>
+      <c r="AG37" s="89"/>
+    </row>
+    <row r="38" spans="1:33" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38" s="24" t="s">
         <v>1076</v>
@@ -28238,8 +28273,10 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="39" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39"/>
+    <row r="39" spans="1:33" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1245</v>
+      </c>
       <c r="B39" s="29" t="s">
         <v>1092</v>
       </c>
@@ -28291,14 +28328,14 @@
       <c r="U39" s="29" t="s">
         <v>1096</v>
       </c>
-      <c r="V39" s="78" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="V39" s="82" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40" s="29" t="s">
-        <v>683</v>
+        <v>1166</v>
       </c>
       <c r="C40" s="29">
         <v>2023</v>
@@ -28355,7 +28392,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="41" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41" s="29" t="s">
         <v>1175</v>
@@ -28412,7 +28449,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="42" spans="1:22" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42" s="64" t="s">
         <v>1366</v>

--- a/Lit_Review_Fig/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/Lit_Review_Fig/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-modeling/Lit_Review_Fig/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEB9727-60C0-4F4A-9BD1-F2342A162F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CE4EDB-8DFF-9542-89A5-F67D9A4B1C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="3" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
@@ -26188,7 +26188,7 @@
   <dimension ref="A1:AN42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="V42" sqref="V42"/>
     </sheetView>
   </sheetViews>

--- a/Lit_Review_Fig/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/Lit_Review_Fig/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-modeling/Lit_Review_Fig/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CE4EDB-8DFF-9542-89A5-F67D9A4B1C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5DD6B9-B4A3-C04A-9445-3E1E8DE7EEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="3" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5799" uniqueCount="1393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5803" uniqueCount="1400">
   <si>
     <t>Study</t>
   </si>
@@ -4299,6 +4299,27 @@
   </si>
   <si>
     <t xml:space="preserve">Leaning towards no due to how long ago the fire took place and not having specifcs on the the sites other than burn vs. unburn </t>
+  </si>
+  <si>
+    <t>PRE_POST</t>
+  </si>
+  <si>
+    <t>Wait for AMP to come back to discuss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is study_ID 22 in our original meta analysis. Figure 4 has DOC and nitrate data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is study_ID 26 in our original meta-analysis. Figure 3 has mean nitrate values. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is study_ID 6 in our original meta-analysis. Figure 2c has mean annual nitrate in ueQ/L. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is study_ID 12 in our original meta-analysis. Figure 5 has nitrate. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaning towards NO! Don’t have discrete measurements, (only continuous and none in the supplemental) Similar to the Jensen paper where there are data but they are plotted with other data that doesn’t give us which sites they are or when they were taken </t>
   </si>
 </sst>
 </file>
@@ -4581,7 +4602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -4707,14 +4728,9 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -26189,7 +26205,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V42" sqref="V42"/>
+      <selection pane="bottomLeft" activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26325,7 +26341,7 @@
         <v>22</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>758</v>
+        <v>1398</v>
       </c>
       <c r="V2" s="76" t="s">
         <v>1157</v>
@@ -26385,7 +26401,7 @@
         <v>22</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>756</v>
+        <v>1397</v>
       </c>
       <c r="V3" s="76" t="s">
         <v>1157</v>
@@ -26445,7 +26461,7 @@
         <v>22</v>
       </c>
       <c r="U4" s="15" t="s">
-        <v>757</v>
+        <v>1396</v>
       </c>
       <c r="V4" s="76" t="s">
         <v>1157</v>
@@ -26509,7 +26525,7 @@
         <v>22</v>
       </c>
       <c r="U5" s="27" t="s">
-        <v>755</v>
+        <v>1395</v>
       </c>
       <c r="V5" s="77" t="s">
         <v>1157</v>
@@ -27717,52 +27733,54 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="28" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28"/>
-      <c r="B28" s="29" t="s">
+    <row r="28" spans="1:40" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="24" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>802</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="24">
         <v>2015</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="25" t="s">
         <v>669</v>
       </c>
-      <c r="G28" s="30" t="s">
+      <c r="G28" s="25" t="s">
         <v>1102</v>
       </c>
-      <c r="I28" s="29" t="s">
+      <c r="I28" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="N28" s="31" t="s">
+      <c r="N28" s="90" t="s">
         <v>803</v>
       </c>
-      <c r="O28" s="32">
+      <c r="O28" s="91">
         <v>35.841000000000001</v>
       </c>
-      <c r="P28" s="32">
+      <c r="P28" s="91">
         <v>-106.5013</v>
       </c>
-      <c r="Q28" s="29">
+      <c r="Q28" s="24">
         <v>0.5</v>
       </c>
-      <c r="R28" s="29" t="s">
+      <c r="R28" s="24" t="s">
         <v>804</v>
       </c>
-      <c r="T28" s="29" t="s">
+      <c r="T28" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="U28" s="29" t="s">
+      <c r="U28" s="24" t="s">
         <v>805</v>
       </c>
-      <c r="V28" s="78" t="s">
-        <v>1157</v>
+      <c r="V28" s="83" t="s">
+        <v>1399</v>
       </c>
     </row>
     <row r="29" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -28031,55 +28049,57 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="34" spans="1:33" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34"/>
-      <c r="B34" s="29" t="s">
+    <row r="34" spans="1:33" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B34" s="24" t="s">
         <v>987</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="24">
         <v>2017</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="F34" s="25" t="s">
         <v>669</v>
       </c>
-      <c r="G34" s="30" t="s">
+      <c r="G34" s="25" t="s">
         <v>1102</v>
       </c>
-      <c r="I34" s="29" t="s">
+      <c r="I34" s="24" t="s">
         <v>786</v>
       </c>
-      <c r="M34" s="29" t="s">
+      <c r="M34" s="24" t="s">
         <v>988</v>
       </c>
-      <c r="N34" s="29" t="s">
+      <c r="N34" s="24" t="s">
         <v>989</v>
       </c>
-      <c r="O34" s="72">
+      <c r="O34" s="89">
         <v>38.317307999999997</v>
       </c>
-      <c r="P34" s="72">
+      <c r="P34" s="89">
         <v>-78.634135000000001</v>
       </c>
-      <c r="Q34" s="29">
+      <c r="Q34" s="24">
         <v>1</v>
       </c>
-      <c r="R34" s="29" t="s">
+      <c r="R34" s="24" t="s">
         <v>990</v>
       </c>
-      <c r="S34" s="29" t="s">
+      <c r="S34" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="U34" s="29" t="s">
+      <c r="U34" s="24" t="s">
         <v>991</v>
       </c>
-      <c r="V34" s="78" t="s">
-        <v>1157</v>
+      <c r="V34" s="83" t="s">
+        <v>1394</v>
       </c>
     </row>
     <row r="35" spans="1:33" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -28181,70 +28201,70 @@
       <c r="A37" t="s">
         <v>1246</v>
       </c>
-      <c r="B37" s="89" t="s">
+      <c r="B37" s="24" t="s">
         <v>1072</v>
       </c>
-      <c r="C37" s="89">
+      <c r="C37" s="24">
         <v>2007</v>
       </c>
-      <c r="D37" s="89" t="s">
+      <c r="D37" s="24" t="s">
         <v>399</v>
       </c>
-      <c r="E37" s="89" t="s">
+      <c r="E37" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="F37" s="90" t="s">
+      <c r="F37" s="25" t="s">
         <v>669</v>
       </c>
-      <c r="G37" s="90" t="s">
+      <c r="G37" s="25" t="s">
         <v>1102</v>
       </c>
-      <c r="H37" s="89" t="s">
+      <c r="H37" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I37" s="89" t="s">
+      <c r="I37" s="24" t="s">
         <v>786</v>
       </c>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89" t="s">
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24" t="s">
         <v>1074</v>
       </c>
-      <c r="N37" s="89" t="s">
+      <c r="N37" s="24" t="s">
         <v>1075</v>
       </c>
-      <c r="O37" s="89">
+      <c r="O37" s="24">
         <v>44.355572000000002</v>
       </c>
-      <c r="P37" s="89">
+      <c r="P37" s="24">
         <v>-68.288216000000006</v>
       </c>
-      <c r="Q37" s="89">
+      <c r="Q37" s="24">
         <v>0.75</v>
       </c>
-      <c r="R37" s="89"/>
-      <c r="S37" s="89" t="s">
+      <c r="R37" s="24"/>
+      <c r="S37" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="T37" s="89"/>
-      <c r="U37" s="91" t="s">
+      <c r="T37" s="24"/>
+      <c r="U37" s="24" t="s">
         <v>1391</v>
       </c>
-      <c r="V37" s="92" t="s">
+      <c r="V37" s="83" t="s">
         <v>1392</v>
       </c>
-      <c r="W37" s="89"/>
-      <c r="X37" s="89"/>
-      <c r="Y37" s="89"/>
-      <c r="Z37" s="89"/>
-      <c r="AA37" s="89"/>
-      <c r="AB37" s="89"/>
-      <c r="AC37" s="89"/>
-      <c r="AD37" s="89"/>
-      <c r="AE37" s="89"/>
-      <c r="AF37" s="89"/>
-      <c r="AG37" s="89"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="24"/>
+      <c r="AB37" s="24"/>
+      <c r="AC37" s="24"/>
+      <c r="AD37" s="24"/>
+      <c r="AE37" s="24"/>
+      <c r="AF37" s="24"/>
+      <c r="AG37" s="24"/>
     </row>
     <row r="38" spans="1:33" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A38"/>
@@ -28333,7 +28353,9 @@
       </c>
     </row>
     <row r="40" spans="1:33" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40"/>
+      <c r="A40" t="s">
+        <v>1245</v>
+      </c>
       <c r="B40" s="29" t="s">
         <v>1166</v>
       </c>
@@ -28388,12 +28410,14 @@
       <c r="U40" s="29" t="s">
         <v>1170</v>
       </c>
-      <c r="V40" s="78" t="s">
-        <v>1157</v>
+      <c r="V40" s="82" t="s">
+        <v>1385</v>
       </c>
     </row>
     <row r="41" spans="1:33" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41"/>
+      <c r="A41" t="s">
+        <v>1245</v>
+      </c>
       <c r="B41" s="29" t="s">
         <v>1175</v>
       </c>
@@ -28445,8 +28469,8 @@
       <c r="U41" s="29" t="s">
         <v>1179</v>
       </c>
-      <c r="V41" s="78" t="s">
-        <v>1157</v>
+      <c r="V41" s="82" t="s">
+        <v>1393</v>
       </c>
     </row>
     <row r="42" spans="1:33" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">

--- a/Lit_Review_Fig/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/Lit_Review_Fig/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-modeling/Lit_Review_Fig/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5DD6B9-B4A3-C04A-9445-3E1E8DE7EEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93E05F1-2EA7-E441-A19B-25D2F967293E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="3" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5803" uniqueCount="1400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5804" uniqueCount="1405">
   <si>
     <t>Study</t>
   </si>
@@ -4320,6 +4320,21 @@
   </si>
   <si>
     <t xml:space="preserve">Leaning towards NO! Don’t have discrete measurements, (only continuous and none in the supplemental) Similar to the Jensen paper where there are data but they are plotted with other data that doesn’t give us which sites they are or when they were taken </t>
+  </si>
+  <si>
+    <t>Canadian Journal of Fisheries and Aquatic sciences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSTOR. I think this is going to be very similar to our Study_ID 12. Study_ID 12 is the same authors and looking at the same wildfire and watersheds so I bet they did a paper immediately following the WF and then they did one 5 years later to look at how it has changed. I will need to get access to confirm this but there's that. </t>
+  </si>
+  <si>
+    <t>TOSSED. This has controlled burns on top of bison grazing so the compounding effects will make this not what we are looking for...This has flux data, should I convert it similarly to how Hampton did it for the other papers?</t>
+  </si>
+  <si>
+    <t>Tossed, no fire event happened. Looking at stormflow across varying landscapes and burn is not at play here</t>
+  </si>
+  <si>
+    <t>Tossed, this paper is in Australia</t>
   </si>
 </sst>
 </file>
@@ -4521,7 +4536,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4573,12 +4588,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4693,7 +4702,6 @@
     <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4704,9 +4712,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4721,8 +4726,8 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4731,6 +4736,10 @@
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -26201,18 +26210,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AC9E00-AE6F-C745-827A-7F2C45C3ED66}">
-  <dimension ref="A1:AN42"/>
+  <dimension ref="A1:AA42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U38" sqref="U38"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="255.6640625" style="81" customWidth="1"/>
+    <col min="22" max="22" width="255.6640625" style="79" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -26279,7 +26288,7 @@
       <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="75" t="s">
+      <c r="V1" s="74" t="s">
         <v>1383</v>
       </c>
       <c r="AA1" s="1" t="s">
@@ -26343,7 +26352,7 @@
       <c r="U2" s="15" t="s">
         <v>1398</v>
       </c>
-      <c r="V2" s="76" t="s">
+      <c r="V2" s="75" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -26403,7 +26412,7 @@
       <c r="U3" s="15" t="s">
         <v>1397</v>
       </c>
-      <c r="V3" s="76" t="s">
+      <c r="V3" s="75" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -26463,7 +26472,7 @@
       <c r="U4" s="15" t="s">
         <v>1396</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="75" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -26527,7 +26536,7 @@
       <c r="U5" s="27" t="s">
         <v>1395</v>
       </c>
-      <c r="V5" s="77" t="s">
+      <c r="V5" s="76" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -26584,7 +26593,7 @@
       <c r="U6" s="15" t="s">
         <v>783</v>
       </c>
-      <c r="V6" s="76" t="s">
+      <c r="V6" s="75" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -26645,7 +26654,7 @@
       <c r="U7" s="15" t="s">
         <v>792</v>
       </c>
-      <c r="V7" s="76" t="s">
+      <c r="V7" s="75" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -26711,7 +26720,7 @@
       <c r="U8" s="27" t="s">
         <v>832</v>
       </c>
-      <c r="V8" s="77" t="s">
+      <c r="V8" s="76" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -26759,7 +26768,7 @@
       <c r="U9" s="15" t="s">
         <v>851</v>
       </c>
-      <c r="V9" s="76" t="s">
+      <c r="V9" s="75" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -26819,7 +26828,7 @@
       <c r="U10" s="15" t="s">
         <v>873</v>
       </c>
-      <c r="V10" s="76" t="s">
+      <c r="V10" s="75" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -26873,7 +26882,7 @@
       <c r="U11" s="15" t="s">
         <v>888</v>
       </c>
-      <c r="V11" s="76" t="s">
+      <c r="V11" s="75" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -26909,7 +26918,7 @@
       <c r="U12" s="15" t="s">
         <v>898</v>
       </c>
-      <c r="V12" s="76" t="s">
+      <c r="V12" s="75" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -26963,7 +26972,7 @@
       <c r="U13" s="15" t="s">
         <v>926</v>
       </c>
-      <c r="V13" s="76" t="s">
+      <c r="V13" s="75" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -27014,7 +27023,7 @@
       <c r="U14" s="15" t="s">
         <v>984</v>
       </c>
-      <c r="V14" s="76" t="s">
+      <c r="V14" s="75" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -27066,12 +27075,12 @@
       <c r="U15" s="15" t="s">
         <v>1186</v>
       </c>
-      <c r="V15" s="76" t="s">
+      <c r="V15" s="75" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="16" spans="1:27" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="29" t="s">
         <v>1245</v>
       </c>
       <c r="B16" s="29" t="s">
@@ -27119,11 +27128,11 @@
       <c r="U16" s="29" t="s">
         <v>940</v>
       </c>
-      <c r="V16" s="82" t="s">
+      <c r="V16" s="80" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="17" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17" s="44" t="s">
         <v>671</v>
@@ -27167,12 +27176,12 @@
       <c r="U17" s="29" t="s">
         <v>676</v>
       </c>
-      <c r="V17" s="78" t="s">
+      <c r="V17" s="77" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="18" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:22" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
         <v>1245</v>
       </c>
       <c r="B18" s="24" t="s">
@@ -27199,12 +27208,9 @@
       <c r="I18" s="24" t="s">
         <v>786</v>
       </c>
-      <c r="J18" s="24"/>
       <c r="K18" s="24" t="s">
         <v>672</v>
       </c>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
       <c r="N18" s="24" t="s">
         <v>673</v>
       </c>
@@ -27229,22 +27235,11 @@
       <c r="U18" s="24" t="s">
         <v>675</v>
       </c>
-      <c r="V18" s="83" t="s">
+      <c r="V18" s="81" t="s">
         <v>1384</v>
       </c>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="24"/>
-    </row>
-    <row r="19" spans="1:40" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:22" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19" s="9" t="s">
         <v>681</v>
@@ -27279,12 +27274,12 @@
       <c r="U19" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="V19" s="80" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="V19" s="78" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>1246</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -27320,14 +27315,13 @@
       <c r="L20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="8"/>
       <c r="N20" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="O20" s="84">
+      <c r="O20" s="82">
         <v>32.848999999999997</v>
       </c>
-      <c r="P20" s="85">
+      <c r="P20" s="83">
         <v>-108.593</v>
       </c>
       <c r="Q20" s="8">
@@ -27336,37 +27330,18 @@
       <c r="R20" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="S20" s="8"/>
       <c r="T20" s="8" t="s">
         <v>22</v>
       </c>
       <c r="U20" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="V20" s="86" t="s">
+      <c r="V20" s="84" t="s">
         <v>1386</v>
       </c>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="8"/>
-      <c r="AH20" s="74"/>
-      <c r="AI20" s="74"/>
-      <c r="AJ20" s="74"/>
-      <c r="AK20" s="74"/>
-      <c r="AL20" s="74"/>
-      <c r="AM20" s="74"/>
-      <c r="AN20" s="74"/>
-    </row>
-    <row r="21" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    </row>
+    <row r="21" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
         <v>1245</v>
       </c>
       <c r="B21" s="29" t="s">
@@ -27423,12 +27398,12 @@
       <c r="U21" s="29" t="s">
         <v>696</v>
       </c>
-      <c r="V21" s="82" t="s">
+      <c r="V21" s="80" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="22" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="29" t="s">
         <v>1245</v>
       </c>
       <c r="B22" s="29" t="s">
@@ -27482,12 +27457,12 @@
       <c r="U22" s="29" t="s">
         <v>710</v>
       </c>
-      <c r="V22" s="82" t="s">
+      <c r="V22" s="80" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="23" spans="1:40" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="24" t="s">
         <v>1245</v>
       </c>
       <c r="B23" s="24" t="s">
@@ -27517,9 +27492,6 @@
       <c r="J23" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
       <c r="N23" s="24" t="s">
         <v>721</v>
       </c>
@@ -27529,8 +27501,6 @@
       <c r="P23" s="24">
         <v>-105.26552</v>
       </c>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
       <c r="S23" s="24" t="s">
         <v>22</v>
       </c>
@@ -27540,22 +27510,11 @@
       <c r="U23" s="24" t="s">
         <v>1108</v>
       </c>
-      <c r="V23" s="87" t="s">
+      <c r="V23" s="85" t="s">
         <v>1387</v>
       </c>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="24"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="24"/>
-      <c r="AD23" s="24"/>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="24"/>
-    </row>
-    <row r="24" spans="1:40" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" s="24" t="s">
         <v>747</v>
@@ -27578,12 +27537,12 @@
       <c r="U24" s="24" t="s">
         <v>748</v>
       </c>
-      <c r="V24" s="79" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="V24" s="90" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="29" t="s">
         <v>1245</v>
       </c>
       <c r="B25" s="29" t="s">
@@ -27637,12 +27596,12 @@
       <c r="U25" s="29" t="s">
         <v>1109</v>
       </c>
-      <c r="V25" s="82" t="s">
+      <c r="V25" s="80" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="26" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="s">
         <v>1245</v>
       </c>
       <c r="B26" s="29" t="s">
@@ -27702,38 +27661,40 @@
       <c r="U26" s="29" t="s">
         <v>770</v>
       </c>
-      <c r="V26" s="82" t="s">
+      <c r="V26" s="80" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="27" spans="1:40" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27"/>
-      <c r="B27" s="24" t="s">
+    <row r="27" spans="1:22" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>793</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="8">
         <v>1996</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="10" t="s">
         <v>1102</v>
       </c>
-      <c r="U27" s="24" t="s">
+      <c r="U27" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="V27" s="79" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="V27" s="84" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>1246</v>
       </c>
@@ -27758,13 +27719,13 @@
       <c r="I28" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="N28" s="90" t="s">
+      <c r="N28" s="88" t="s">
         <v>803</v>
       </c>
-      <c r="O28" s="91">
+      <c r="O28" s="89">
         <v>35.841000000000001</v>
       </c>
-      <c r="P28" s="91">
+      <c r="P28" s="89">
         <v>-106.5013</v>
       </c>
       <c r="Q28" s="24">
@@ -27779,12 +27740,12 @@
       <c r="U28" s="24" t="s">
         <v>805</v>
       </c>
-      <c r="V28" s="83" t="s">
+      <c r="V28" s="81" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="29" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="29" t="s">
         <v>1245</v>
       </c>
       <c r="B29" s="29" t="s">
@@ -27835,11 +27796,11 @@
       <c r="U29" s="29" t="s">
         <v>838</v>
       </c>
-      <c r="V29" s="82" t="s">
+      <c r="V29" s="80" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="30" spans="1:40" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
         <v>1245</v>
       </c>
@@ -27891,12 +27852,12 @@
       <c r="U30" s="24" t="s">
         <v>915</v>
       </c>
-      <c r="V30" s="83" t="s">
+      <c r="V30" s="81" t="s">
         <v>1388</v>
       </c>
     </row>
-    <row r="31" spans="1:40" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="29" t="s">
         <v>1245</v>
       </c>
       <c r="B31" s="29" t="s">
@@ -27956,11 +27917,11 @@
       <c r="U31" s="29" t="s">
         <v>935</v>
       </c>
-      <c r="V31" s="82" t="s">
+      <c r="V31" s="80" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="32" spans="1:40" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
         <v>1245</v>
       </c>
@@ -28006,11 +27967,11 @@
       <c r="U32" s="24" t="s">
         <v>951</v>
       </c>
-      <c r="V32" s="83" t="s">
+      <c r="V32" s="81" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="33" spans="1:33" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>1246</v>
       </c>
@@ -28032,7 +27993,7 @@
       <c r="G33" s="10" t="s">
         <v>1102</v>
       </c>
-      <c r="M33" s="88"/>
+      <c r="M33" s="86"/>
       <c r="N33" s="8" t="s">
         <v>950</v>
       </c>
@@ -28045,11 +28006,11 @@
       <c r="U33" s="8" t="s">
         <v>959</v>
       </c>
-      <c r="V33" s="86" t="s">
+      <c r="V33" s="84" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="34" spans="1:33" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
         <v>1246</v>
       </c>
@@ -28080,10 +28041,10 @@
       <c r="N34" s="24" t="s">
         <v>989</v>
       </c>
-      <c r="O34" s="89">
+      <c r="O34" s="87">
         <v>38.317307999999997</v>
       </c>
-      <c r="P34" s="89">
+      <c r="P34" s="87">
         <v>-78.634135000000001</v>
       </c>
       <c r="Q34" s="24">
@@ -28098,11 +28059,11 @@
       <c r="U34" s="24" t="s">
         <v>991</v>
       </c>
-      <c r="V34" s="83" t="s">
+      <c r="V34" s="81" t="s">
         <v>1394</v>
       </c>
     </row>
-    <row r="35" spans="1:33" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35" s="29" t="s">
         <v>1000</v>
@@ -28134,12 +28095,12 @@
       <c r="U35" s="29" t="s">
         <v>1001</v>
       </c>
-      <c r="V35" s="78" t="s">
+      <c r="V35" s="77" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="36" spans="1:33" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="29" t="s">
         <v>1245</v>
       </c>
       <c r="B36" s="29" t="s">
@@ -28193,12 +28154,12 @@
       <c r="U36" s="29" t="s">
         <v>1006</v>
       </c>
-      <c r="V36" s="82" t="s">
+      <c r="V36" s="80" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="37" spans="1:33" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:22" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="24" t="s">
         <v>1246</v>
       </c>
       <c r="B37" s="24" t="s">
@@ -28225,9 +28186,6 @@
       <c r="I37" s="24" t="s">
         <v>786</v>
       </c>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
       <c r="M37" s="24" t="s">
         <v>1074</v>
       </c>
@@ -28243,58 +28201,47 @@
       <c r="Q37" s="24">
         <v>0.75</v>
       </c>
-      <c r="R37" s="24"/>
       <c r="S37" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="T37" s="24"/>
       <c r="U37" s="24" t="s">
         <v>1391</v>
       </c>
-      <c r="V37" s="83" t="s">
+      <c r="V37" s="81" t="s">
         <v>1392</v>
       </c>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="24"/>
-      <c r="AD37" s="24"/>
-      <c r="AE37" s="24"/>
-      <c r="AF37" s="24"/>
-      <c r="AG37" s="24"/>
-    </row>
-    <row r="38" spans="1:33" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38"/>
-      <c r="B38" s="24" t="s">
+    </row>
+    <row r="38" spans="1:22" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>1076</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="8">
         <v>2007</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="E38" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="F38" s="25" t="s">
-        <v>669</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>1102</v>
-      </c>
-      <c r="U38" s="24" t="s">
+      <c r="F38" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>1104</v>
+      </c>
+      <c r="U38" s="8" t="s">
         <v>1078</v>
       </c>
-      <c r="V38" s="79" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:33" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="V38" s="84" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="29" t="s">
         <v>1245</v>
       </c>
       <c r="B39" s="29" t="s">
@@ -28348,12 +28295,12 @@
       <c r="U39" s="29" t="s">
         <v>1096</v>
       </c>
-      <c r="V39" s="82" t="s">
+      <c r="V39" s="80" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="40" spans="1:33" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="29" t="s">
         <v>1245</v>
       </c>
       <c r="B40" s="29" t="s">
@@ -28410,12 +28357,12 @@
       <c r="U40" s="29" t="s">
         <v>1170</v>
       </c>
-      <c r="V40" s="82" t="s">
+      <c r="V40" s="80" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="41" spans="1:33" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:22" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="29" t="s">
         <v>1245</v>
       </c>
       <c r="B41" s="29" t="s">
@@ -28469,42 +28416,44 @@
       <c r="U41" s="29" t="s">
         <v>1179</v>
       </c>
-      <c r="V41" s="82" t="s">
+      <c r="V41" s="80" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="42" spans="1:33" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42"/>
-      <c r="B42" s="64" t="s">
+    <row r="42" spans="1:22" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B42" s="26" t="s">
         <v>1366</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C42" s="8">
         <v>1987</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="F42" s="25" t="s">
-        <v>669</v>
-      </c>
-      <c r="G42" s="25" t="s">
-        <v>1102</v>
-      </c>
-      <c r="H42" s="65"/>
-      <c r="S42" s="24" t="s">
+      <c r="F42" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H42" s="66"/>
+      <c r="S42" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="T42" s="24" t="s">
+      <c r="T42" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="U42" s="24" t="s">
+      <c r="U42" s="8" t="s">
         <v>1367</v>
       </c>
-      <c r="V42" s="79" t="s">
-        <v>1157</v>
+      <c r="V42" s="91" t="s">
+        <v>1404</v>
       </c>
     </row>
   </sheetData>
@@ -28520,6 +28469,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/Lit_Review_Fig/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/Lit_Review_Fig/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-modeling/Lit_Review_Fig/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93E05F1-2EA7-E441-A19B-25D2F967293E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818B7E52-757F-2F45-8C0A-5910CF0B4B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="3" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="3" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
   <sheets>
     <sheet name="Study_info" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5804" uniqueCount="1405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5809" uniqueCount="1410">
   <si>
     <t>Study</t>
   </si>
@@ -4336,6 +4336,21 @@
   <si>
     <t>Tossed, this paper is in Australia</t>
   </si>
+  <si>
+    <t>YES!</t>
+  </si>
+  <si>
+    <t>YES!3</t>
+  </si>
+  <si>
+    <t>YES! BUT LOOK AT FISH CREEK DATA</t>
+  </si>
+  <si>
+    <t>Betts &amp; Jones, 2009</t>
+  </si>
+  <si>
+    <t>TALK TO AMP REGARDING STUDY DESIGN (PRE_POST/CONTROL_IMPACT)</t>
+  </si>
 </sst>
 </file>
 
@@ -4344,7 +4359,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4535,6 +4550,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -4611,7 +4633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -4736,8 +4758,13 @@
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -26214,7 +26241,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26296,7 +26323,9 @@
       </c>
     </row>
     <row r="2" spans="1:27" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2"/>
+      <c r="A2" s="15" t="s">
+        <v>1245</v>
+      </c>
       <c r="B2" s="15" t="s">
         <v>727</v>
       </c>
@@ -26352,12 +26381,14 @@
       <c r="U2" s="15" t="s">
         <v>1398</v>
       </c>
-      <c r="V2" s="75" t="s">
-        <v>1157</v>
+      <c r="V2" s="91" t="s">
+        <v>1405</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3"/>
+      <c r="A3" s="15" t="s">
+        <v>1245</v>
+      </c>
       <c r="B3" s="15" t="s">
         <v>681</v>
       </c>
@@ -26412,12 +26443,14 @@
       <c r="U3" s="15" t="s">
         <v>1397</v>
       </c>
-      <c r="V3" s="75" t="s">
-        <v>1157</v>
+      <c r="V3" s="91" t="s">
+        <v>1393</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4"/>
+      <c r="A4" s="15" t="s">
+        <v>1245</v>
+      </c>
       <c r="B4" s="15" t="s">
         <v>740</v>
       </c>
@@ -26428,7 +26461,7 @@
         <v>114</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>115</v>
+        <v>1406</v>
       </c>
       <c r="F4" s="16" t="b">
         <v>1</v>
@@ -26472,12 +26505,14 @@
       <c r="U4" s="15" t="s">
         <v>1396</v>
       </c>
-      <c r="V4" s="75" t="s">
-        <v>1157</v>
+      <c r="V4" s="91" t="s">
+        <v>1405</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5"/>
+      <c r="A5" s="15" t="s">
+        <v>1245</v>
+      </c>
       <c r="B5" s="27" t="s">
         <v>750</v>
       </c>
@@ -26536,14 +26571,16 @@
       <c r="U5" s="27" t="s">
         <v>1395</v>
       </c>
-      <c r="V5" s="76" t="s">
-        <v>1157</v>
+      <c r="V5" s="92" t="s">
+        <v>1407</v>
       </c>
     </row>
     <row r="6" spans="1:27" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6"/>
+      <c r="A6" s="15" t="s">
+        <v>1245</v>
+      </c>
       <c r="B6" s="15" t="s">
-        <v>781</v>
+        <v>1408</v>
       </c>
       <c r="C6" s="15">
         <v>2009</v>
@@ -26593,8 +26630,8 @@
       <c r="U6" s="15" t="s">
         <v>783</v>
       </c>
-      <c r="V6" s="75" t="s">
-        <v>1157</v>
+      <c r="V6" s="91" t="s">
+        <v>1409</v>
       </c>
     </row>
     <row r="7" spans="1:27" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -27537,7 +27574,7 @@
       <c r="U24" s="24" t="s">
         <v>748</v>
       </c>
-      <c r="V24" s="90" t="s">
+      <c r="V24" s="24" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -28452,7 +28489,7 @@
       <c r="U42" s="8" t="s">
         <v>1367</v>
       </c>
-      <c r="V42" s="91" t="s">
+      <c r="V42" s="90" t="s">
         <v>1404</v>
       </c>
     </row>

--- a/Lit_Review_Fig/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/Lit_Review_Fig/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-modeling/Lit_Review_Fig/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818B7E52-757F-2F45-8C0A-5910CF0B4B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBDA4C6-B4A4-D140-B814-CC0CC0312AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="3" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5809" uniqueCount="1410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5812" uniqueCount="1410">
   <si>
     <t>Study</t>
   </si>
@@ -4633,7 +4633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -4728,9 +4728,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -26241,14 +26238,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="255.6640625" style="79" customWidth="1"/>
+    <col min="22" max="22" width="255.6640625" style="78" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -26381,7 +26378,7 @@
       <c r="U2" s="15" t="s">
         <v>1398</v>
       </c>
-      <c r="V2" s="91" t="s">
+      <c r="V2" s="90" t="s">
         <v>1405</v>
       </c>
     </row>
@@ -26443,7 +26440,7 @@
       <c r="U3" s="15" t="s">
         <v>1397</v>
       </c>
-      <c r="V3" s="91" t="s">
+      <c r="V3" s="90" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -26505,7 +26502,7 @@
       <c r="U4" s="15" t="s">
         <v>1396</v>
       </c>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="90" t="s">
         <v>1405</v>
       </c>
     </row>
@@ -26571,7 +26568,7 @@
       <c r="U5" s="27" t="s">
         <v>1395</v>
       </c>
-      <c r="V5" s="92" t="s">
+      <c r="V5" s="91" t="s">
         <v>1407</v>
       </c>
     </row>
@@ -26630,12 +26627,14 @@
       <c r="U6" s="15" t="s">
         <v>783</v>
       </c>
-      <c r="V6" s="91" t="s">
+      <c r="V6" s="90" t="s">
         <v>1409</v>
       </c>
     </row>
     <row r="7" spans="1:27" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7"/>
+      <c r="A7" s="15" t="s">
+        <v>1245</v>
+      </c>
       <c r="B7" s="15" t="s">
         <v>790</v>
       </c>
@@ -26691,12 +26690,14 @@
       <c r="U7" s="15" t="s">
         <v>792</v>
       </c>
-      <c r="V7" s="75" t="s">
-        <v>1157</v>
+      <c r="V7" s="90" t="s">
+        <v>1405</v>
       </c>
     </row>
     <row r="8" spans="1:27" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8"/>
+      <c r="A8" s="15" t="s">
+        <v>1245</v>
+      </c>
       <c r="B8" s="27" t="s">
         <v>827</v>
       </c>
@@ -26757,12 +26758,14 @@
       <c r="U8" s="27" t="s">
         <v>832</v>
       </c>
-      <c r="V8" s="76" t="s">
-        <v>1157</v>
+      <c r="V8" s="90" t="s">
+        <v>1409</v>
       </c>
     </row>
     <row r="9" spans="1:27" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9"/>
+      <c r="A9" s="15" t="s">
+        <v>1245</v>
+      </c>
       <c r="B9" s="15" t="s">
         <v>849</v>
       </c>
@@ -27165,7 +27168,7 @@
       <c r="U16" s="29" t="s">
         <v>940</v>
       </c>
-      <c r="V16" s="80" t="s">
+      <c r="V16" s="79" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -27213,7 +27216,7 @@
       <c r="U17" s="29" t="s">
         <v>676</v>
       </c>
-      <c r="V17" s="77" t="s">
+      <c r="V17" s="76" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -27272,7 +27275,7 @@
       <c r="U18" s="24" t="s">
         <v>675</v>
       </c>
-      <c r="V18" s="81" t="s">
+      <c r="V18" s="80" t="s">
         <v>1384</v>
       </c>
     </row>
@@ -27311,7 +27314,7 @@
       <c r="U19" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="V19" s="78" t="s">
+      <c r="V19" s="77" t="s">
         <v>1400</v>
       </c>
     </row>
@@ -27355,10 +27358,10 @@
       <c r="N20" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="O20" s="82">
+      <c r="O20" s="81">
         <v>32.848999999999997</v>
       </c>
-      <c r="P20" s="83">
+      <c r="P20" s="82">
         <v>-108.593</v>
       </c>
       <c r="Q20" s="8">
@@ -27373,7 +27376,7 @@
       <c r="U20" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="V20" s="84" t="s">
+      <c r="V20" s="83" t="s">
         <v>1386</v>
       </c>
     </row>
@@ -27435,7 +27438,7 @@
       <c r="U21" s="29" t="s">
         <v>696</v>
       </c>
-      <c r="V21" s="80" t="s">
+      <c r="V21" s="79" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -27494,7 +27497,7 @@
       <c r="U22" s="29" t="s">
         <v>710</v>
       </c>
-      <c r="V22" s="80" t="s">
+      <c r="V22" s="79" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -27547,7 +27550,7 @@
       <c r="U23" s="24" t="s">
         <v>1108</v>
       </c>
-      <c r="V23" s="85" t="s">
+      <c r="V23" s="84" t="s">
         <v>1387</v>
       </c>
     </row>
@@ -27633,7 +27636,7 @@
       <c r="U25" s="29" t="s">
         <v>1109</v>
       </c>
-      <c r="V25" s="80" t="s">
+      <c r="V25" s="79" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -27698,7 +27701,7 @@
       <c r="U26" s="29" t="s">
         <v>770</v>
       </c>
-      <c r="V26" s="80" t="s">
+      <c r="V26" s="79" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -27727,7 +27730,7 @@
       <c r="U27" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="V27" s="84" t="s">
+      <c r="V27" s="83" t="s">
         <v>1402</v>
       </c>
     </row>
@@ -27756,13 +27759,13 @@
       <c r="I28" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="N28" s="88" t="s">
+      <c r="N28" s="87" t="s">
         <v>803</v>
       </c>
-      <c r="O28" s="89">
+      <c r="O28" s="88">
         <v>35.841000000000001</v>
       </c>
-      <c r="P28" s="89">
+      <c r="P28" s="88">
         <v>-106.5013</v>
       </c>
       <c r="Q28" s="24">
@@ -27777,7 +27780,7 @@
       <c r="U28" s="24" t="s">
         <v>805</v>
       </c>
-      <c r="V28" s="81" t="s">
+      <c r="V28" s="80" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -27833,7 +27836,7 @@
       <c r="U29" s="29" t="s">
         <v>838</v>
       </c>
-      <c r="V29" s="80" t="s">
+      <c r="V29" s="79" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -27889,7 +27892,7 @@
       <c r="U30" s="24" t="s">
         <v>915</v>
       </c>
-      <c r="V30" s="81" t="s">
+      <c r="V30" s="80" t="s">
         <v>1388</v>
       </c>
     </row>
@@ -27954,7 +27957,7 @@
       <c r="U31" s="29" t="s">
         <v>935</v>
       </c>
-      <c r="V31" s="80" t="s">
+      <c r="V31" s="79" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -28004,7 +28007,7 @@
       <c r="U32" s="24" t="s">
         <v>951</v>
       </c>
-      <c r="V32" s="81" t="s">
+      <c r="V32" s="80" t="s">
         <v>1389</v>
       </c>
     </row>
@@ -28030,7 +28033,7 @@
       <c r="G33" s="10" t="s">
         <v>1102</v>
       </c>
-      <c r="M33" s="86"/>
+      <c r="M33" s="85"/>
       <c r="N33" s="8" t="s">
         <v>950</v>
       </c>
@@ -28043,7 +28046,7 @@
       <c r="U33" s="8" t="s">
         <v>959</v>
       </c>
-      <c r="V33" s="84" t="s">
+      <c r="V33" s="83" t="s">
         <v>1390</v>
       </c>
     </row>
@@ -28078,10 +28081,10 @@
       <c r="N34" s="24" t="s">
         <v>989</v>
       </c>
-      <c r="O34" s="87">
+      <c r="O34" s="86">
         <v>38.317307999999997</v>
       </c>
-      <c r="P34" s="87">
+      <c r="P34" s="86">
         <v>-78.634135000000001</v>
       </c>
       <c r="Q34" s="24">
@@ -28096,7 +28099,7 @@
       <c r="U34" s="24" t="s">
         <v>991</v>
       </c>
-      <c r="V34" s="81" t="s">
+      <c r="V34" s="80" t="s">
         <v>1394</v>
       </c>
     </row>
@@ -28132,7 +28135,7 @@
       <c r="U35" s="29" t="s">
         <v>1001</v>
       </c>
-      <c r="V35" s="77" t="s">
+      <c r="V35" s="76" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -28191,7 +28194,7 @@
       <c r="U36" s="29" t="s">
         <v>1006</v>
       </c>
-      <c r="V36" s="80" t="s">
+      <c r="V36" s="79" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -28244,7 +28247,7 @@
       <c r="U37" s="24" t="s">
         <v>1391</v>
       </c>
-      <c r="V37" s="81" t="s">
+      <c r="V37" s="80" t="s">
         <v>1392</v>
       </c>
     </row>
@@ -28273,7 +28276,7 @@
       <c r="U38" s="8" t="s">
         <v>1078</v>
       </c>
-      <c r="V38" s="84" t="s">
+      <c r="V38" s="83" t="s">
         <v>1403</v>
       </c>
     </row>
@@ -28332,7 +28335,7 @@
       <c r="U39" s="29" t="s">
         <v>1096</v>
       </c>
-      <c r="V39" s="80" t="s">
+      <c r="V39" s="79" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -28394,7 +28397,7 @@
       <c r="U40" s="29" t="s">
         <v>1170</v>
       </c>
-      <c r="V40" s="80" t="s">
+      <c r="V40" s="79" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -28453,7 +28456,7 @@
       <c r="U41" s="29" t="s">
         <v>1179</v>
       </c>
-      <c r="V41" s="80" t="s">
+      <c r="V41" s="79" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -28489,7 +28492,7 @@
       <c r="U42" s="8" t="s">
         <v>1367</v>
       </c>
-      <c r="V42" s="90" t="s">
+      <c r="V42" s="89" t="s">
         <v>1404</v>
       </c>
     </row>

--- a/Lit_Review_Fig/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/Lit_Review_Fig/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-modeling/Lit_Review_Fig/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A97A646-A365-D64C-8CF7-F04CC37DC9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3FDE68-8919-1E43-A788-8A41F14DAA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" activeTab="3" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="3" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
   <sheets>
     <sheet name="Study_info" sheetId="2" r:id="rId1"/>
@@ -27210,9 +27210,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AC9E00-AE6F-C745-827A-7F2C45C3ED66}">
   <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V41" sqref="V41"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Lit_Review_Fig/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/Lit_Review_Fig/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-modeling/Lit_Review_Fig/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3FDE68-8919-1E43-A788-8A41F14DAA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A559282-05BC-2441-B5B0-3100534F0E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="3" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
   <sheets>
     <sheet name="Study_info" sheetId="2" r:id="rId1"/>
     <sheet name="Study_info_filtered" sheetId="7" r:id="rId2"/>
     <sheet name="Study_info_filtered_V1" sheetId="8" r:id="rId3"/>
     <sheet name="Study_info_filtered_V2" sheetId="9" r:id="rId4"/>
-    <sheet name="Original_meta_analysis" sheetId="4" r:id="rId5"/>
-    <sheet name="Exclusion" sheetId="3" r:id="rId6"/>
+    <sheet name="Study_info_filtered_V3_Q" sheetId="10" r:id="rId5"/>
+    <sheet name="Original_meta_analysis" sheetId="4" r:id="rId6"/>
+    <sheet name="Exclusion" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5852" uniqueCount="1413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6349" uniqueCount="1462">
   <si>
     <t>Study</t>
   </si>
@@ -4360,6 +4361,217 @@
   <si>
     <t>Check Units</t>
   </si>
+  <si>
+    <t>Bladon et al. 2008</t>
+  </si>
+  <si>
+    <t>Annual discharge/Volume-weighted mean annual concentrations were calculated by estimating daily chemical concentrations and multiplying by daily discharge; the daily fluxes are then summed and divided by total discharge (in text and in figures)</t>
+  </si>
+  <si>
+    <t>Summer discharge average (L/s) for each site (C1,C2,C4,P6) (Table 1)</t>
+  </si>
+  <si>
+    <t>Mean daily Q for the burned and the reference watersheds (Fig 2). Also has nutrient yields for each burned watershed and reference watershed (table 4)</t>
+  </si>
+  <si>
+    <t>Average annual yields of Q and DOC - for all the watersheds (burned and unburned)-Table 2</t>
+  </si>
+  <si>
+    <t>Average Q (L/s) for late June/late July/late August for all the burned and unburned watersheds (Table 1)</t>
+  </si>
+  <si>
+    <t>USGS gauge on the North Fork (Figure 2) which is the main stem of the channel and all the watersheds/sampling sites are tributaries (without a guage) to this main stem. We do have stream characteristics (area/stream order) (Table 1/2)</t>
+  </si>
+  <si>
+    <t>USGS gauge at Pinchot and Coal Creek starting december 2003. (Pinchot Creek - 482520113420201, Coal Creek - 402518113420101)</t>
+  </si>
+  <si>
+    <t>Discharge_notes</t>
+  </si>
+  <si>
+    <t>Discharge</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The North Saint Vrain Creek at Wild Basin (NSV; USGS station 401226105340100), which served as a control (unburned) watershed. BigThompson River below Moraine Park (BTMP; USGSstation 40211410535010). Annual yield of total dissolved solids (TDS), nitrate, and dissolved organic carbon (DOC) calculated for Big Thompson Riverat Moraine Park. Value in parentheses is % difference in postfire yield compared to estimates at similar runoff levels for prefire conditions (Table 2). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not_for_all </t>
+  </si>
+  <si>
+    <t>Stream discharge (5 min, m3/s) at sites DS2 and DS3 was obtained from USGS stream-gaging stations(06727410 and 06727500; http://waterdata.usgs.gov/nwis) Water-levelloggers were deployed to monitor stage at sites US1 and DS1 every 5 min for the same period, and streamdischarge was measured periodically to develop rating curves for discharge estimation as described in Murphy et al. (2015). Their supplemental had Q at different frequencies for ALL the sites</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>I didn’t see any figures with Q, there was nothing in the supplemental with Q, I also searched yield/load/flux and specific discharge in the main text and got no hits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sample collection is during post fire flushing events. Figure S2. Sample collection and Flow (m3/s) conditions in sampling locations: Wragg Fire (A) Rocky Fire (B), and Lower Lake (C). Grab samples were collected from a well-mixed stream section for selected storm event and base flow conditions (United States Geological Survey [USGS] data for Wragg Fire sampling location [station no: 11451800], Rocky Fire sampling location [station no: 11451800] and lower Clear lake [station no: 11451800] were used to generate flow charts).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figure 2 has the discharge of the Cache la Poudre River from 2009-2013 but I don’t know where the gauge. There are sites that are upstream and downstream of the burn for this that are all on the Cache la Poudre River. I found a gauge that is downstream of all these sites in Fort Collins that may be the one. But since I dont have upstream downstream I wont be able to compare I dont think </t>
+  </si>
+  <si>
+    <t>Yes_but_cant_compare_Reference_control</t>
+  </si>
+  <si>
+    <t>The supplemental has estimated specific discharge on the day of sampling (L/M2/day)</t>
+  </si>
+  <si>
+    <t>Specific_Discharge</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Figure 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pre- and post-fire daily discharge of La Jara, History Grove, and Upper Jaramillo flumes. The dashed lines indicate the simulated data of discharge obtained from the ANN models for La Jara and History Grove Creeks. The shaded red region marks the timing of the Thompson Ridge Wildfire from May 31 through June 30, 2013. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Figure 5: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Calculated annual fluxes and water yields of La Jara, History Grove, and Upper Jaramillo catchments The calculations presented above are sensitive to daily discharge data. Streamflow measurements were interrupted during the WYs 2014, 2015, 2016, and part of 2017 in La Jara and History Grove catchments due to the post-fire debris flow during the monsoon season of WY 2013 that damaged the gauging flumes installed at each location. </t>
+    </r>
+  </si>
+  <si>
+    <t>Figure 3 has daily Q for burned watersheds and assoicated unbyrned watersheds</t>
+  </si>
+  <si>
+    <t>Figure 4 has discharge and dissolved laod transport rates for Jones and Crow Creeks (Jones Creek is burned, Crow Creek is reference)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplemental has some discharge records for Trout Creek and Cold Creek which is a paired watershed but not for the other paired watershed. Also the flow sometimes doesn't line up with the sampling or there are weird windows of flow. Should I just go ahead and clipped the paired watersheds that dont have Q? </t>
+  </si>
+  <si>
+    <t>They have a bunch of seasonal concentrations (rising limb/falling limb/base flow/baseflow and spring snowmelt/post-rainstorm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stream discharge (5min) at sites DS2 and DS3 was obtained from USGS stream-gaging stations (06727500 and 06727410; http://waterdata.usgs.gov/ nwis),which operated April–September.Water-level loggers were deployed to monitor stage at sites US1 andDS1(and at DS2 and DS3 in 2011 prior to installation of stream gages) every 5min for the same period, and stream discharge was measured periodically to develop rating curves for discharge estimation (Rantz e al 1982). Figure 3 has US1 and DS3 Q. </t>
+  </si>
+  <si>
+    <t>Yes_mean</t>
+  </si>
+  <si>
+    <t>Table 1 has mean velocity for  each site. Average stream characteristics were based on weekly observations during the 20-day experimental period (july 26-August 16, 2017)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figure 7 has a relationship between stream discharge and nitrate concentrations. Figure 5 has monthly flow-weighted streamwater NO3-N </t>
+  </si>
+  <si>
+    <t>flow_weighted_streamwater_NO3</t>
+  </si>
+  <si>
+    <t>N_export_kh_ha_mol</t>
+  </si>
+  <si>
+    <t>Figure 3 has C and N export. Potentially upon request?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figure 2  has discharge for the Poudre River transect </t>
+  </si>
+  <si>
+    <t>Coombs &amp; Melack, 2013</t>
+  </si>
+  <si>
+    <t>Initial impacts of a wildfire on hydrology and suspended sediment and nutrient export in California chaparral watersheds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figure 1 shows that there looks like there are SBC LTER stream gauges at all of the sites. Figure 6 has cumulative nitrate export for the year. </t>
+  </si>
+  <si>
+    <t>Table 2 states that stream flow for the Hubbard Brook watersheds was obtained from http://www.hbrook.sr.unh.edu/.
+bUSGS stream flow was obtained from http://bowdnhbow.er.usgs.gov/annual.html.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 1 has discharge for each site (burned and unburned). The text just states that they used a swoffer so I don’t know if this is a single point measurement or if it is a mean overtime </t>
+  </si>
+  <si>
+    <t>Drinking water treatment response following a Colorado wildfire</t>
+  </si>
+  <si>
+    <r>
+      <t>Daily average streamflow hydrograph of the CLP River at the drinking water intake for 2008 – 2013, and 2013 only. A flood event occurred in September 2013, resulting in flows near 70 m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/s. Supplemental S8. Everytime I use the Yes_but_cant_compare_reference_control it is because it is the CLP river</t>
+    </r>
+  </si>
+  <si>
+    <t>Effects of wildfire on stream algal abundance, community structure, and nutrient limitation</t>
+  </si>
+  <si>
+    <t>CHECK UNITS</t>
+  </si>
+  <si>
+    <t>Wildfire effects on source-water quality</t>
+  </si>
+  <si>
+    <t>Figure 4 has discharge data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figure 2 has mean daily Q for each site except site 1 which is the reference site. In February of 2008, the USGS outfitted Site 4 with a stream flow gauge (USGS Site 103366097). Fig. 7 Annual discharge (Q), N-loading, and P-loading for
+sites 2, 3, and 4 for the first two water years following fire. Missing reference site </t>
+  </si>
+  <si>
+    <t>Figure 3 has 2016 hydrograph for Scotty Creek (Reference site). SC outlet has been monitored by Water Survey of Canada since 1995 (wateroffice.ec.gc.ca, last access: 16 August 2018)                                                                                Cumulative run-off and solute yield from Scotty Creek and Notawohka Creek catchments during the 2016 study period (Table 1). Notawohka Creek catchment discharge was calcualted by them using HOBOs and Swoffers. I dont see the data within the paper but it is available upon request. Yes_for_reference_burn_upon_Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes_upon_Request. I didn’t see any figures with Q, there was nothing in the supplemental with Q, I also searched yield/load/flux and specific discharge in the main text and got no hits </t>
+  </si>
+  <si>
+    <t>Upon_request</t>
+  </si>
 </sst>
 </file>
 
@@ -4368,7 +4580,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4566,6 +4778,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -4642,7 +4861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -4770,10 +4989,34 @@
     <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -15106,7 +15349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC045B23-D4C7-1A45-9D95-CD948EAB3A4D}">
   <dimension ref="A1:AQ321"/>
   <sheetViews>
-    <sheetView topLeftCell="A219" workbookViewId="0">
+    <sheetView topLeftCell="A296" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -24586,7 +24829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90229B5-CF41-C440-BFCC-1DBDEC7AB338}">
   <dimension ref="A1:AQ49"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -27210,9 +27453,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AC9E00-AE6F-C745-827A-7F2C45C3ED66}">
   <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29621,6 +29864,2000 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E83DAFB-3D69-1A4C-8997-3EF8B4236F27}">
+  <dimension ref="A1:AA34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="5" max="21" width="10.83203125" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" customWidth="1"/>
+    <col min="23" max="23" width="37.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="74" t="s">
+        <v>1380</v>
+      </c>
+      <c r="W1" s="105" t="s">
+        <v>1422</v>
+      </c>
+      <c r="X1" s="105" t="s">
+        <v>1421</v>
+      </c>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>681</v>
+      </c>
+      <c r="C2" s="60">
+        <v>1992</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="107" t="s">
+        <v>669</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60" t="s">
+        <v>682</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B3" t="s">
+        <v>689</v>
+      </c>
+      <c r="C3">
+        <v>2011</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>693</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>694</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>695</v>
+      </c>
+      <c r="O3">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="P3">
+        <v>-105.26552</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s">
+        <v>690</v>
+      </c>
+      <c r="T3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" t="s">
+        <v>696</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="X3" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B4" t="s">
+        <v>762</v>
+      </c>
+      <c r="C4">
+        <v>2019</v>
+      </c>
+      <c r="D4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="102" t="s">
+        <v>785</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>694</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>721</v>
+      </c>
+      <c r="O4">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="P4">
+        <v>-105.26552</v>
+      </c>
+      <c r="S4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="V4" t="s">
+        <v>1382</v>
+      </c>
+      <c r="W4" t="s">
+        <v>1444</v>
+      </c>
+      <c r="X4" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B5" t="s">
+        <v>720</v>
+      </c>
+      <c r="C5">
+        <v>2019</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>785</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
+        <v>721</v>
+      </c>
+      <c r="O5">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="P5">
+        <v>-105.26552</v>
+      </c>
+      <c r="S5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="V5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1427</v>
+      </c>
+      <c r="X5" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B6" t="s">
+        <v>924</v>
+      </c>
+      <c r="C6">
+        <v>2019</v>
+      </c>
+      <c r="D6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>785</v>
+      </c>
+      <c r="J6" t="s">
+        <v>873</v>
+      </c>
+      <c r="M6" t="s">
+        <v>926</v>
+      </c>
+      <c r="N6" t="s">
+        <v>927</v>
+      </c>
+      <c r="O6">
+        <v>37.534036999999998</v>
+      </c>
+      <c r="P6">
+        <v>-119.389139</v>
+      </c>
+      <c r="S6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" t="s">
+        <v>925</v>
+      </c>
+      <c r="V6" t="s">
+        <v>1401</v>
+      </c>
+      <c r="W6" t="s">
+        <v>1427</v>
+      </c>
+      <c r="X6" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B7" t="s">
+        <v>948</v>
+      </c>
+      <c r="C7">
+        <v>2015</v>
+      </c>
+      <c r="D7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="I7" t="s">
+        <v>785</v>
+      </c>
+      <c r="M7" t="s">
+        <v>930</v>
+      </c>
+      <c r="N7" t="s">
+        <v>949</v>
+      </c>
+      <c r="O7">
+        <v>44.578524999999999</v>
+      </c>
+      <c r="P7">
+        <v>-115.66604</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s">
+        <v>22</v>
+      </c>
+      <c r="U7" t="s">
+        <v>950</v>
+      </c>
+      <c r="V7" t="s">
+        <v>1386</v>
+      </c>
+      <c r="W7" t="s">
+        <v>1427</v>
+      </c>
+      <c r="X7" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B8" t="s">
+        <v>835</v>
+      </c>
+      <c r="C8">
+        <v>2018</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>785</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>836</v>
+      </c>
+      <c r="O8">
+        <v>61.4</v>
+      </c>
+      <c r="P8">
+        <v>121.433333</v>
+      </c>
+      <c r="Q8">
+        <v>0.5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>743</v>
+      </c>
+      <c r="S8" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" t="s">
+        <v>837</v>
+      </c>
+      <c r="V8" t="s">
+        <v>1382</v>
+      </c>
+      <c r="W8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="X8" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B9" t="s">
+        <v>727</v>
+      </c>
+      <c r="C9">
+        <v>1998</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>785</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>724</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" t="s">
+        <v>725</v>
+      </c>
+      <c r="O9" s="99">
+        <v>48.762999999999998</v>
+      </c>
+      <c r="P9" s="99">
+        <v>-114.226</v>
+      </c>
+      <c r="Q9" s="100">
+        <v>5</v>
+      </c>
+      <c r="R9" s="100" t="s">
+        <v>726</v>
+      </c>
+      <c r="T9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U9" t="s">
+        <v>1395</v>
+      </c>
+      <c r="V9" t="s">
+        <v>1401</v>
+      </c>
+      <c r="W9" t="s">
+        <v>1425</v>
+      </c>
+      <c r="X9" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C10">
+        <v>2023</v>
+      </c>
+      <c r="D10" t="s">
+        <v>470</v>
+      </c>
+      <c r="E10" t="s">
+        <v>471</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>785</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="L10" s="46" t="s">
+        <v>1166</v>
+      </c>
+      <c r="M10" t="s">
+        <v>987</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1167</v>
+      </c>
+      <c r="O10">
+        <v>38.916015999999999</v>
+      </c>
+      <c r="P10">
+        <v>-120.281718</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10" t="s">
+        <v>1170</v>
+      </c>
+      <c r="S10" t="s">
+        <v>22</v>
+      </c>
+      <c r="U10" t="s">
+        <v>1169</v>
+      </c>
+      <c r="V10" t="s">
+        <v>1382</v>
+      </c>
+      <c r="W10" t="s">
+        <v>1425</v>
+      </c>
+      <c r="X10" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B11" t="s">
+        <v>881</v>
+      </c>
+      <c r="C11">
+        <v>2012</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>785</v>
+      </c>
+      <c r="J11" t="s">
+        <v>882</v>
+      </c>
+      <c r="M11" t="s">
+        <v>883</v>
+      </c>
+      <c r="N11" t="s">
+        <v>884</v>
+      </c>
+      <c r="O11">
+        <v>38.896382000000003</v>
+      </c>
+      <c r="P11">
+        <v>-120.041629</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s">
+        <v>22</v>
+      </c>
+      <c r="U11" t="s">
+        <v>887</v>
+      </c>
+      <c r="V11" t="s">
+        <v>1401</v>
+      </c>
+      <c r="W11" t="s">
+        <v>1425</v>
+      </c>
+      <c r="X11" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B12" t="s">
+        <v>935</v>
+      </c>
+      <c r="C12">
+        <v>2021</v>
+      </c>
+      <c r="D12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E12" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>785</v>
+      </c>
+      <c r="M12" t="s">
+        <v>937</v>
+      </c>
+      <c r="N12" t="s">
+        <v>938</v>
+      </c>
+      <c r="O12">
+        <v>69.166667000000004</v>
+      </c>
+      <c r="P12">
+        <v>-150.75</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="S12" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" t="s">
+        <v>939</v>
+      </c>
+      <c r="V12" t="s">
+        <v>1382</v>
+      </c>
+      <c r="W12" t="s">
+        <v>1433</v>
+      </c>
+      <c r="X12" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C13">
+        <v>2015</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="V13" t="s">
+        <v>1455</v>
+      </c>
+      <c r="W13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="X13" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C14">
+        <v>2023</v>
+      </c>
+      <c r="D14" t="s">
+        <v>476</v>
+      </c>
+      <c r="E14" t="s">
+        <v>477</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>692</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1176</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1177</v>
+      </c>
+      <c r="N14" s="106" t="s">
+        <v>1175</v>
+      </c>
+      <c r="O14">
+        <v>35.890813000000001</v>
+      </c>
+      <c r="P14">
+        <v>-106.540854</v>
+      </c>
+      <c r="Q14">
+        <v>9</v>
+      </c>
+      <c r="S14" t="s">
+        <v>22</v>
+      </c>
+      <c r="T14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U14" t="s">
+        <v>1178</v>
+      </c>
+      <c r="V14" t="s">
+        <v>1390</v>
+      </c>
+      <c r="W14" t="s">
+        <v>1423</v>
+      </c>
+      <c r="X14" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B15" t="s">
+        <v>681</v>
+      </c>
+      <c r="C15">
+        <v>1992</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>692</v>
+      </c>
+      <c r="J15" s="93" t="s">
+        <v>733</v>
+      </c>
+      <c r="K15" s="93" t="s">
+        <v>734</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="93" t="s">
+        <v>731</v>
+      </c>
+      <c r="O15" s="94">
+        <v>49.667000000000002</v>
+      </c>
+      <c r="P15" s="94">
+        <v>-93.733000000000004</v>
+      </c>
+      <c r="Q15" s="95">
+        <v>15</v>
+      </c>
+      <c r="R15" t="s">
+        <v>732</v>
+      </c>
+      <c r="T15" t="s">
+        <v>22</v>
+      </c>
+      <c r="U15" t="s">
+        <v>1394</v>
+      </c>
+      <c r="V15" t="s">
+        <v>1390</v>
+      </c>
+      <c r="W15" t="s">
+        <v>1423</v>
+      </c>
+      <c r="X15" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C16">
+        <v>2009</v>
+      </c>
+      <c r="D16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>693</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" t="s">
+        <v>784</v>
+      </c>
+      <c r="N16" t="s">
+        <v>783</v>
+      </c>
+      <c r="O16">
+        <v>65.150000000000006</v>
+      </c>
+      <c r="P16">
+        <v>-147.5</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="S16" t="s">
+        <v>22</v>
+      </c>
+      <c r="T16" t="s">
+        <v>22</v>
+      </c>
+      <c r="U16" t="s">
+        <v>782</v>
+      </c>
+      <c r="V16" t="s">
+        <v>1405</v>
+      </c>
+      <c r="W16" t="s">
+        <v>1423</v>
+      </c>
+      <c r="X16" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C17">
+        <v>2008</v>
+      </c>
+      <c r="D17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F17" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>785</v>
+      </c>
+      <c r="J17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" t="s">
+        <v>741</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" t="s">
+        <v>742</v>
+      </c>
+      <c r="O17">
+        <v>49.616667</v>
+      </c>
+      <c r="P17">
+        <v>-114.666667</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s">
+        <v>744</v>
+      </c>
+      <c r="T17" t="s">
+        <v>22</v>
+      </c>
+      <c r="U17" t="s">
+        <v>1393</v>
+      </c>
+      <c r="V17" t="s">
+        <v>1401</v>
+      </c>
+      <c r="W17" t="s">
+        <v>1423</v>
+      </c>
+      <c r="X17" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C18">
+        <v>2020</v>
+      </c>
+      <c r="D18" t="s">
+        <v>320</v>
+      </c>
+      <c r="E18" t="s">
+        <v>321</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="I18" t="s">
+        <v>785</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1002</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1378</v>
+      </c>
+      <c r="O18">
+        <v>35</v>
+      </c>
+      <c r="P18">
+        <v>-83</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18" t="s">
+        <v>989</v>
+      </c>
+      <c r="S18" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" t="s">
+        <v>1005</v>
+      </c>
+      <c r="V18" t="s">
+        <v>1382</v>
+      </c>
+      <c r="W18" t="s">
+        <v>1423</v>
+      </c>
+      <c r="X18" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B19" t="s">
+        <v>982</v>
+      </c>
+      <c r="C19">
+        <v>2019</v>
+      </c>
+      <c r="D19" t="s">
+        <v>304</v>
+      </c>
+      <c r="E19" t="s">
+        <v>305</v>
+      </c>
+      <c r="F19" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>785</v>
+      </c>
+      <c r="M19" t="s">
+        <v>985</v>
+      </c>
+      <c r="N19" t="s">
+        <v>695</v>
+      </c>
+      <c r="O19">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="P19">
+        <v>-105.26552</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19" t="s">
+        <v>984</v>
+      </c>
+      <c r="S19" t="s">
+        <v>22</v>
+      </c>
+      <c r="U19" t="s">
+        <v>983</v>
+      </c>
+      <c r="V19" t="s">
+        <v>1401</v>
+      </c>
+      <c r="W19" t="s">
+        <v>1423</v>
+      </c>
+      <c r="X19" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C20">
+        <v>2013</v>
+      </c>
+      <c r="D20" s="111" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="V20" t="s">
+        <v>1401</v>
+      </c>
+      <c r="W20" t="s">
+        <v>1423</v>
+      </c>
+      <c r="X20" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B21" t="s">
+        <v>928</v>
+      </c>
+      <c r="C21">
+        <v>1998</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>256</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>785</v>
+      </c>
+      <c r="J21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" t="s">
+        <v>932</v>
+      </c>
+      <c r="M21" t="s">
+        <v>930</v>
+      </c>
+      <c r="N21" t="s">
+        <v>931</v>
+      </c>
+      <c r="O21">
+        <v>44.512999999999998</v>
+      </c>
+      <c r="P21">
+        <v>-109.98</v>
+      </c>
+      <c r="Q21">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s">
+        <v>933</v>
+      </c>
+      <c r="S21" t="s">
+        <v>22</v>
+      </c>
+      <c r="T21" t="s">
+        <v>22</v>
+      </c>
+      <c r="U21" t="s">
+        <v>934</v>
+      </c>
+      <c r="V21" t="s">
+        <v>1382</v>
+      </c>
+      <c r="W21" t="s">
+        <v>1423</v>
+      </c>
+      <c r="X21" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B22" t="s">
+        <v>670</v>
+      </c>
+      <c r="C22">
+        <v>2000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="V22" t="s">
+        <v>1381</v>
+      </c>
+      <c r="W22" t="s">
+        <v>1423</v>
+      </c>
+      <c r="X22" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B23" s="96" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C23">
+        <v>2015</v>
+      </c>
+      <c r="D23" t="s">
+        <v>481</v>
+      </c>
+      <c r="E23" t="s">
+        <v>482</v>
+      </c>
+      <c r="F23" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>785</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1184</v>
+      </c>
+      <c r="K23" s="97"/>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23" s="98" t="s">
+        <v>1186</v>
+      </c>
+      <c r="O23">
+        <v>44.910800000000002</v>
+      </c>
+      <c r="P23">
+        <v>-116.1031</v>
+      </c>
+      <c r="S23" t="s">
+        <v>22</v>
+      </c>
+      <c r="U23" t="s">
+        <v>1185</v>
+      </c>
+      <c r="V23" t="s">
+        <v>1401</v>
+      </c>
+      <c r="W23" t="s">
+        <v>1423</v>
+      </c>
+      <c r="X23" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B24" s="96" t="s">
+        <v>750</v>
+      </c>
+      <c r="C24" s="96">
+        <v>2008</v>
+      </c>
+      <c r="D24" s="96" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="101" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="102" t="s">
+        <v>785</v>
+      </c>
+      <c r="J24" s="93" t="s">
+        <v>751</v>
+      </c>
+      <c r="K24" s="93" t="s">
+        <v>752</v>
+      </c>
+      <c r="L24" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="96"/>
+      <c r="N24" s="93" t="s">
+        <v>753</v>
+      </c>
+      <c r="O24" s="94">
+        <v>48.789253000000002</v>
+      </c>
+      <c r="P24" s="94">
+        <v>-113.79626500000001</v>
+      </c>
+      <c r="Q24" s="95">
+        <v>4</v>
+      </c>
+      <c r="R24" s="95" t="s">
+        <v>754</v>
+      </c>
+      <c r="S24" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="T24" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="U24" s="96" t="s">
+        <v>1392</v>
+      </c>
+      <c r="V24" s="96" t="s">
+        <v>1403</v>
+      </c>
+      <c r="W24" s="96" t="s">
+        <v>1423</v>
+      </c>
+      <c r="X24" s="96" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B25" s="96" t="s">
+        <v>826</v>
+      </c>
+      <c r="C25" s="96">
+        <v>2016</v>
+      </c>
+      <c r="D25" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="101" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="96" t="s">
+        <v>693</v>
+      </c>
+      <c r="J25" s="93" t="s">
+        <v>827</v>
+      </c>
+      <c r="K25" s="93" t="s">
+        <v>828</v>
+      </c>
+      <c r="L25" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="103" t="s">
+        <v>833</v>
+      </c>
+      <c r="N25" s="93" t="s">
+        <v>829</v>
+      </c>
+      <c r="O25" s="94">
+        <v>40.353888888</v>
+      </c>
+      <c r="P25" s="94">
+        <v>-105.583611111</v>
+      </c>
+      <c r="Q25" s="95">
+        <v>2</v>
+      </c>
+      <c r="R25" s="95" t="s">
+        <v>830</v>
+      </c>
+      <c r="S25" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="96" t="s">
+        <v>831</v>
+      </c>
+      <c r="V25" t="s">
+        <v>1405</v>
+      </c>
+      <c r="W25" t="s">
+        <v>1423</v>
+      </c>
+      <c r="X25" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B26" t="s">
+        <v>711</v>
+      </c>
+      <c r="C26">
+        <v>2015</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>785</v>
+      </c>
+      <c r="L26" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" t="s">
+        <v>708</v>
+      </c>
+      <c r="O26">
+        <v>40.033332999999999</v>
+      </c>
+      <c r="P26">
+        <v>-105.416667</v>
+      </c>
+      <c r="Q26">
+        <v>3</v>
+      </c>
+      <c r="R26" t="s">
+        <v>709</v>
+      </c>
+      <c r="S26" t="s">
+        <v>22</v>
+      </c>
+      <c r="T26" t="s">
+        <v>22</v>
+      </c>
+      <c r="U26" t="s">
+        <v>710</v>
+      </c>
+      <c r="V26" t="s">
+        <v>1382</v>
+      </c>
+      <c r="W26" t="s">
+        <v>1423</v>
+      </c>
+      <c r="X26" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B27" t="s">
+        <v>848</v>
+      </c>
+      <c r="C27">
+        <v>2018</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" t="s">
+        <v>198</v>
+      </c>
+      <c r="F27" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" t="s">
+        <v>849</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1377</v>
+      </c>
+      <c r="O27">
+        <v>40.050263700000002</v>
+      </c>
+      <c r="P27">
+        <v>-105.3666599</v>
+      </c>
+      <c r="Q27">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s">
+        <v>22</v>
+      </c>
+      <c r="T27" t="s">
+        <v>22</v>
+      </c>
+      <c r="U27" t="s">
+        <v>850</v>
+      </c>
+      <c r="V27" t="s">
+        <v>1401</v>
+      </c>
+      <c r="W27" t="s">
+        <v>1423</v>
+      </c>
+      <c r="X27" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B28" t="s">
+        <v>871</v>
+      </c>
+      <c r="C28">
+        <v>2020</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s">
+        <v>785</v>
+      </c>
+      <c r="J28" t="s">
+        <v>873</v>
+      </c>
+      <c r="M28" s="104" t="s">
+        <v>874</v>
+      </c>
+      <c r="N28" t="s">
+        <v>875</v>
+      </c>
+      <c r="O28">
+        <v>38.512031</v>
+      </c>
+      <c r="P28">
+        <v>-122.097228</v>
+      </c>
+      <c r="Q28">
+        <v>3</v>
+      </c>
+      <c r="R28" t="s">
+        <v>876</v>
+      </c>
+      <c r="S28" t="s">
+        <v>22</v>
+      </c>
+      <c r="T28" t="s">
+        <v>22</v>
+      </c>
+      <c r="U28" t="s">
+        <v>872</v>
+      </c>
+      <c r="V28" t="s">
+        <v>1401</v>
+      </c>
+      <c r="W28" t="s">
+        <v>1423</v>
+      </c>
+      <c r="X28" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C29">
+        <v>2012</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1456</v>
+      </c>
+      <c r="W29" t="s">
+        <v>1423</v>
+      </c>
+      <c r="X29" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C30">
+        <v>2016</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="L30" s="46"/>
+      <c r="V30" t="s">
+        <v>1390</v>
+      </c>
+      <c r="W30" t="s">
+        <v>1431</v>
+      </c>
+      <c r="X30" s="112" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B31" t="s">
+        <v>765</v>
+      </c>
+      <c r="C31">
+        <v>2015</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
+        <v>785</v>
+      </c>
+      <c r="J31" s="108" t="s">
+        <v>770</v>
+      </c>
+      <c r="K31" s="108" t="s">
+        <v>771</v>
+      </c>
+      <c r="L31" s="108" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31" s="108" t="s">
+        <v>767</v>
+      </c>
+      <c r="O31" s="109">
+        <v>40.7159999</v>
+      </c>
+      <c r="P31" s="109">
+        <v>-105.23308400000001</v>
+      </c>
+      <c r="Q31" s="110">
+        <v>0.5</v>
+      </c>
+      <c r="R31" s="110" t="s">
+        <v>768</v>
+      </c>
+      <c r="S31" t="s">
+        <v>22</v>
+      </c>
+      <c r="U31" t="s">
+        <v>769</v>
+      </c>
+      <c r="V31" t="s">
+        <v>1382</v>
+      </c>
+      <c r="W31" t="s">
+        <v>1431</v>
+      </c>
+      <c r="X31" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B32" t="s">
+        <v>789</v>
+      </c>
+      <c r="C32">
+        <v>2014</v>
+      </c>
+      <c r="D32" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" t="s">
+        <v>785</v>
+      </c>
+      <c r="J32" s="96" t="s">
+        <v>770</v>
+      </c>
+      <c r="K32" s="96" t="s">
+        <v>771</v>
+      </c>
+      <c r="L32" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" s="96"/>
+      <c r="N32" s="96" t="s">
+        <v>767</v>
+      </c>
+      <c r="O32">
+        <v>40.702464999999997</v>
+      </c>
+      <c r="P32">
+        <v>-105.241646</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32" t="s">
+        <v>790</v>
+      </c>
+      <c r="S32" t="s">
+        <v>22</v>
+      </c>
+      <c r="T32" t="s">
+        <v>22</v>
+      </c>
+      <c r="U32" t="s">
+        <v>791</v>
+      </c>
+      <c r="V32" t="s">
+        <v>1401</v>
+      </c>
+      <c r="W32" t="s">
+        <v>1431</v>
+      </c>
+      <c r="X32" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B33" t="s">
+        <v>909</v>
+      </c>
+      <c r="C33">
+        <v>2008</v>
+      </c>
+      <c r="D33" t="s">
+        <v>246</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="K33" s="97"/>
+      <c r="N33" s="98"/>
+      <c r="V33" t="s">
+        <v>1385</v>
+      </c>
+      <c r="W33" t="s">
+        <v>1440</v>
+      </c>
+      <c r="X33" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C34">
+        <v>2021</v>
+      </c>
+      <c r="D34" t="s">
+        <v>412</v>
+      </c>
+      <c r="E34" t="s">
+        <v>413</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s">
+        <v>785</v>
+      </c>
+      <c r="J34" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" t="s">
+        <v>1094</v>
+      </c>
+      <c r="L34" t="s">
+        <v>1092</v>
+      </c>
+      <c r="M34" t="s">
+        <v>1093</v>
+      </c>
+      <c r="N34" t="s">
+        <v>1096</v>
+      </c>
+      <c r="O34">
+        <v>40.262369999999997</v>
+      </c>
+      <c r="P34">
+        <v>-105.59080400000001</v>
+      </c>
+      <c r="Q34" s="100">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="U34" t="s">
+        <v>1095</v>
+      </c>
+      <c r="V34" t="s">
+        <v>1382</v>
+      </c>
+      <c r="W34" t="s">
+        <v>1440</v>
+      </c>
+      <c r="X34" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X34">
+    <sortCondition ref="W2:W34"/>
+  </sortState>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G7 G19:G25" xr:uid="{8B21EFF3-D61C-024F-A87C-4FC0F83918E4}">
+      <formula1>"No fire event, no DOC/NO3, No river, Prescribed Burn, Maybe"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G28:G33 G8:G18" xr:uid="{0E623121-76BB-5545-A51E-3CA5AE425338}">
+      <formula1>"Included, No fire event, no DOC/NO3, No river, Prescribed Burn, Wrong study design, Maybe"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G26:G27" xr:uid="{6293A447-FF72-D446-A29F-02B4F97196AE}">
+      <formula1>"No fire event, no DOC/NO3, No river, Prescribed Burn, Wrong study design, Maybe"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6601E5-1AF6-2742-B70F-8EB10EC414EE}">
   <dimension ref="A1:H32"/>
   <sheetViews>
@@ -29696,7 +31933,7 @@
       <c r="E3" t="s">
         <v>1249</v>
       </c>
-      <c r="F3" s="94" t="s">
+      <c r="F3" s="92" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -29716,7 +31953,7 @@
       <c r="E4" t="s">
         <v>1248</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="92" t="s">
         <v>1390</v>
       </c>
     </row>
@@ -29750,7 +31987,7 @@
       <c r="E6" t="s">
         <v>1251</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="92" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -29869,7 +32106,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="8" t="s">
         <v>1244</v>
       </c>
       <c r="B15" s="57">
@@ -29884,7 +32121,7 @@
       <c r="E15" t="s">
         <v>1249</v>
       </c>
-      <c r="F15" s="93" t="s">
+      <c r="F15" s="91" t="s">
         <v>1407</v>
       </c>
       <c r="H15" t="s">
@@ -29948,7 +32185,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="8" t="s">
         <v>1244</v>
       </c>
       <c r="B20" s="57">
@@ -29963,10 +32200,10 @@
       <c r="E20" s="60" t="s">
         <v>1252</v>
       </c>
-      <c r="F20" s="93" t="s">
+      <c r="F20" s="91" t="s">
         <v>1407</v>
       </c>
-      <c r="H20" s="91" t="s">
+      <c r="H20" t="s">
         <v>1409</v>
       </c>
     </row>
@@ -30035,7 +32272,7 @@
       <c r="E25" t="s">
         <v>1249</v>
       </c>
-      <c r="F25" s="93" t="s">
+      <c r="F25" s="91" t="s">
         <v>1407</v>
       </c>
       <c r="H25" t="s">
@@ -30086,7 +32323,7 @@
       <c r="E28" t="s">
         <v>1248</v>
       </c>
-      <c r="F28" s="93" t="s">
+      <c r="F28" s="91" t="s">
         <v>1407</v>
       </c>
       <c r="H28" t="s">
@@ -30106,7 +32343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4EDC603-3282-6340-BD81-0DFA981250B6}">
   <dimension ref="B2:D8"/>
   <sheetViews>

--- a/Lit_Review_Fig/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
+++ b/Lit_Review_Fig/FireMeta_Rproj/inputs/StudiesData_Table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-modeling/Lit_Review_Fig/FireMeta_Rproj/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A559282-05BC-2441-B5B0-3100534F0E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51F560D-F72C-B042-8D3A-62A59B5D5869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="4" xr2:uid="{4E0DEC49-1D65-E841-934F-3D87EA14399D}"/>
   </bookViews>
   <sheets>
     <sheet name="Study_info" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6349" uniqueCount="1462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6385" uniqueCount="1480">
   <si>
     <t>Study</t>
   </si>
@@ -4383,9 +4383,6 @@
     <t>USGS gauge on the North Fork (Figure 2) which is the main stem of the channel and all the watersheds/sampling sites are tributaries (without a guage) to this main stem. We do have stream characteristics (area/stream order) (Table 1/2)</t>
   </si>
   <si>
-    <t>USGS gauge at Pinchot and Coal Creek starting december 2003. (Pinchot Creek - 482520113420201, Coal Creek - 402518113420101)</t>
-  </si>
-  <si>
     <t>Discharge_notes</t>
   </si>
   <si>
@@ -4472,15 +4469,9 @@
     <t>Figure 3 has daily Q for burned watersheds and assoicated unbyrned watersheds</t>
   </si>
   <si>
-    <t>Figure 4 has discharge and dissolved laod transport rates for Jones and Crow Creeks (Jones Creek is burned, Crow Creek is reference)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Supplemental has some discharge records for Trout Creek and Cold Creek which is a paired watershed but not for the other paired watershed. Also the flow sometimes doesn't line up with the sampling or there are weird windows of flow. Should I just go ahead and clipped the paired watersheds that dont have Q? </t>
   </si>
   <si>
-    <t>They have a bunch of seasonal concentrations (rising limb/falling limb/base flow/baseflow and spring snowmelt/post-rainstorm)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stream discharge (5min) at sites DS2 and DS3 was obtained from USGS stream-gaging stations (06727500 and 06727410; http://waterdata.usgs.gov/ nwis),which operated April–September.Water-level loggers were deployed to monitor stage at sites US1 andDS1(and at DS2 and DS3 in 2011 prior to installation of stream gages) every 5min for the same period, and stream discharge was measured periodically to develop rating curves for discharge estimation (Rantz e al 1982). Figure 3 has US1 and DS3 Q. </t>
   </si>
   <si>
@@ -4512,10 +4503,6 @@
   </si>
   <si>
     <t xml:space="preserve">Figure 1 shows that there looks like there are SBC LTER stream gauges at all of the sites. Figure 6 has cumulative nitrate export for the year. </t>
-  </si>
-  <si>
-    <t>Table 2 states that stream flow for the Hubbard Brook watersheds was obtained from http://www.hbrook.sr.unh.edu/.
-bUSGS stream flow was obtained from http://bowdnhbow.er.usgs.gov/annual.html.</t>
   </si>
   <si>
     <t xml:space="preserve">Table 1 has discharge for each site (burned and unburned). The text just states that they used a swoffer so I don’t know if this is a single point measurement or if it is a mean overtime </t>
@@ -4572,6 +4559,73 @@
   <si>
     <t>Upon_request</t>
   </si>
+  <si>
+    <t>They have a bunch of seasonal concentrations (rising limb/falling limb/base flow/baseflow and spring snowmelt/post-rainstorm). This is from the Cache la Poudre so I think it is the same sites as other studies that study the same area (PSF, PNF, water intake, etc....?)</t>
+  </si>
+  <si>
+    <t>Q_df_in_git</t>
+  </si>
+  <si>
+    <t>Site 1: N, Site 2: Fig 2. extracted (not yet), Site 3: Fig 2. extracted (not yet), Site 4: USGS</t>
+  </si>
+  <si>
+    <t>Y: in supplemental</t>
+  </si>
+  <si>
+    <t>C1: Table 1 extracted (not yet), C2: Table 1 extracted (not yet), C4: Table 1 extracted (not yet), P6: C1: Table 1 extracted (not yet). Should email Jay to see if he has the time series data because these are just summer averages of Q</t>
+  </si>
+  <si>
+    <t>Reference: Fig. 2 extracted (not yet), Burn: Fig. 2 extracted (not yet): Can we get Kevin to send us over this data?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA/AR/CA-TO/AR-UP/IN/CH/IR/TE - Fig. 3 extracted (not yet)</t>
+  </si>
+  <si>
+    <t>N- can either back calculate from yield or can request</t>
+  </si>
+  <si>
+    <t>Upper Jaramillo: Fig 3. extracted (not yet), History Grove: Fig 3. extracted (not yet), La Jara: Fig 3. extracted (not yet). I included the Volume weighted means and fluxes in a csv. Can I request this Q data?</t>
+  </si>
+  <si>
+    <t>Data citations</t>
+  </si>
+  <si>
+    <t>Y: from (https://sbclter.msi.ucsb.edu/data/catalog/)</t>
+  </si>
+  <si>
+    <t>Melack, J. 2019. SBC LTER: Land: Hydrology: Stream discharge and associated parameters at Gaviota Creek, Hwy 101 South Rest Stop (GV01) ver 9. Environmental Data Initiative. https://doi.org/10.6073/pasta/3cdf7fd60f88f0822ecfad5a92edf9d6. Accessed 2023-09-25. 2) Melack, J. 2019. SBC LTER: Land: Hydrology: Stream discharge and associated parameters at Arroyo Hondo Creek , Upstream Side of 101 Bridge (HO00) ver 9. Environmental Data Initiative. https://doi.org/10.6073/pasta/85f4639ac0ac76c1eb4b3a82842ce171. Accessed 2023-09-25. 3) Melack, J. 2022. SBC LTER: Land: Hydrology: Stream discharge and associated parameters at San Onofre Creek at Highway 101 (ON02) ver 8. Environmental Data Initiative. https://doi.org/10.6073/pasta/6f5c2b7109bcfde37f47b0974ac64b2e. Accessed 2023-09-25. 4) Melack, J. 2019. SBC LTER: Land: Hydrology: Stream discharge and associated parameters at Rattlesnake Creek, Las Canoas Rd (RS02) ver 9. Environmental Data Initiative. https://doi.org/10.6073/pasta/00ad8507a9eed8e923867c67d907af12. Accessed 2023-09-25.</t>
+  </si>
+  <si>
+    <t>Figure 4 has discharge and dissolved load transport rates for Jones and Crow Creeks (Jones Creek is burned, Crow Creek is reference)</t>
+  </si>
+  <si>
+    <t>Y: Fig. 3 extracted</t>
+  </si>
+  <si>
+    <t>Table 2 states that stream flow for the Hubbard Brook watersheds was obtained from http://www.hbrook.sr.unh.edu/.
+USGS stream flow was obtained from http://bowdnhbow.er.usgs.gov/annual.html.</t>
+  </si>
+  <si>
+    <t>Y: USGS and LTER</t>
+  </si>
+  <si>
+    <t>USDA Forest Service, Northern Research Station. 2022. Hubbard Brook Experimental Forest: Instantaneous Streamflow by Watershed, 1956 – present ver 15. Environmental Data Initiative. https://doi.org/10.6073/pasta/3fb23a2cced495d48a939b5c9076d53c (Accessed 2023-09-25).</t>
+  </si>
+  <si>
+    <t>Y: Table 1 extracted (means only)</t>
+  </si>
+  <si>
+    <t>USGS gauge at Pinchot and Coal Creek starting december 2003. (Pinchot Creek - 482520113420201, Coal Creek - 482518113420101)</t>
+  </si>
+  <si>
+    <t>N: Fig. 3 extracted (not yet), can we request?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y: for the big thompson river but the NSV river I cant quite find it on USGS but there is a record in the figures </t>
+  </si>
+  <si>
+    <t>Y: DS2 (USGS), DS3 (USGS)</t>
+  </si>
 </sst>
 </file>
 
@@ -4580,7 +4634,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4785,6 +4839,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -4861,7 +4921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -5017,6 +5077,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -29865,22 +29929,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E83DAFB-3D69-1A4C-8997-3EF8B4236F27}">
-  <dimension ref="A1:AA34"/>
+  <dimension ref="A1:AB34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="5" max="21" width="10.83203125" customWidth="1"/>
-    <col min="22" max="22" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="21" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="37.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>1379</v>
       </c>
@@ -29948,14 +30013,21 @@
         <v>1380</v>
       </c>
       <c r="W1" s="105" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="X1" s="105" t="s">
-        <v>1421</v>
+        <v>1420</v>
+      </c>
+      <c r="Y1" s="105" t="s">
+        <v>1459</v>
+      </c>
+      <c r="Z1" s="105" t="s">
+        <v>1467</v>
       </c>
       <c r="AA1" s="1"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB1" s="6"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1243</v>
       </c>
@@ -29999,7 +30071,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1243</v>
       </c>
@@ -30061,13 +30133,16 @@
         <v>1382</v>
       </c>
       <c r="W3" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="X3" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+        <v>1439</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1243</v>
       </c>
@@ -30126,13 +30201,16 @@
         <v>1382</v>
       </c>
       <c r="W4" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="X4" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+        <v>1442</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1243</v>
       </c>
@@ -30185,13 +30263,16 @@
         <v>1384</v>
       </c>
       <c r="W5" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="X5" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+        <v>1458</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1243</v>
       </c>
@@ -30247,13 +30328,16 @@
         <v>1401</v>
       </c>
       <c r="W6" t="s">
+        <v>1426</v>
+      </c>
+      <c r="X6" t="s">
         <v>1427</v>
       </c>
-      <c r="X6" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Y6" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1243</v>
       </c>
@@ -30303,13 +30387,16 @@
         <v>1386</v>
       </c>
       <c r="W7" t="s">
+        <v>1426</v>
+      </c>
+      <c r="X7" t="s">
         <v>1427</v>
       </c>
-      <c r="X7" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Y7" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1243</v>
       </c>
@@ -30365,13 +30452,16 @@
         <v>1382</v>
       </c>
       <c r="W8" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="X8" t="s">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+        <v>1455</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1243</v>
       </c>
@@ -30433,13 +30523,16 @@
         <v>1401</v>
       </c>
       <c r="W9" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="X9" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Y9" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1243</v>
       </c>
@@ -30501,13 +30594,16 @@
         <v>1382</v>
       </c>
       <c r="W10" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="X10" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+        <v>1435</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1243</v>
       </c>
@@ -30563,13 +30659,16 @@
         <v>1401</v>
       </c>
       <c r="W11" t="s">
-        <v>1425</v>
-      </c>
-      <c r="X11" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+        <v>1424</v>
+      </c>
+      <c r="X11" s="113" t="s">
+        <v>1454</v>
+      </c>
+      <c r="Y11" s="113" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1243</v>
       </c>
@@ -30622,13 +30721,16 @@
         <v>1382</v>
       </c>
       <c r="W12" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="X12" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+        <v>1431</v>
+      </c>
+      <c r="Y12" s="113" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1243</v>
       </c>
@@ -30639,21 +30741,24 @@
         <v>2015</v>
       </c>
       <c r="D13" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="V13" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="W13" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="X13" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+        <v>1456</v>
+      </c>
+      <c r="Y13" s="113" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1243</v>
       </c>
@@ -30712,13 +30817,16 @@
         <v>1390</v>
       </c>
       <c r="W14" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="X14" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+        <v>1433</v>
+      </c>
+      <c r="Y14" s="113" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1243</v>
       </c>
@@ -30780,13 +30888,16 @@
         <v>1390</v>
       </c>
       <c r="W15" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="X15" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Y15" s="113" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1243</v>
       </c>
@@ -30845,13 +30956,16 @@
         <v>1405</v>
       </c>
       <c r="W16" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="X16" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="113" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1243</v>
       </c>
@@ -30913,13 +31027,17 @@
         <v>1401</v>
       </c>
       <c r="W17" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="X17" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="113" t="s">
+        <v>1463</v>
+      </c>
+      <c r="AA17" s="116"/>
+    </row>
+    <row r="18" spans="1:27" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1243</v>
       </c>
@@ -30978,13 +31096,17 @@
         <v>1382</v>
       </c>
       <c r="W18" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="X18" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1434</v>
+      </c>
+      <c r="Y18" s="113" t="s">
+        <v>1464</v>
+      </c>
+      <c r="AA18" s="115"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1243</v>
       </c>
@@ -31037,24 +31159,27 @@
         <v>1401</v>
       </c>
       <c r="W19" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="X19" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="113" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1243</v>
       </c>
       <c r="B20" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="C20">
         <v>2013</v>
       </c>
       <c r="D20" s="111" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -31062,13 +31187,19 @@
         <v>1401</v>
       </c>
       <c r="W20" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="X20" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1446</v>
+      </c>
+      <c r="Y20" s="113" t="s">
+        <v>1468</v>
+      </c>
+      <c r="Z20" s="62" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1243</v>
       </c>
@@ -31133,13 +31264,16 @@
         <v>1382</v>
       </c>
       <c r="W21" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="X21" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1470</v>
+      </c>
+      <c r="Y21" s="113" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1243</v>
       </c>
@@ -31158,13 +31292,19 @@
         <v>1381</v>
       </c>
       <c r="W22" t="s">
-        <v>1423</v>
-      </c>
-      <c r="X22" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+        <v>1422</v>
+      </c>
+      <c r="X22" s="113" t="s">
+        <v>1472</v>
+      </c>
+      <c r="Y22" s="113" t="s">
+        <v>1473</v>
+      </c>
+      <c r="Z22" s="116" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1243</v>
       </c>
@@ -31218,13 +31358,16 @@
         <v>1401</v>
       </c>
       <c r="W23" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="X23" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="113" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1243</v>
       </c>
@@ -31290,13 +31433,16 @@
         <v>1403</v>
       </c>
       <c r="W24" s="96" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="X24" s="96" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1476</v>
+      </c>
+      <c r="Y24" s="114" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1243</v>
       </c>
@@ -31364,13 +31510,16 @@
         <v>1405</v>
       </c>
       <c r="W25" t="s">
+        <v>1422</v>
+      </c>
+      <c r="X25" t="s">
         <v>1423</v>
       </c>
-      <c r="X25" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="114" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1243</v>
       </c>
@@ -31429,13 +31578,16 @@
         <v>1382</v>
       </c>
       <c r="W26" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="X26" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1436</v>
+      </c>
+      <c r="Y26" s="114" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1243</v>
       </c>
@@ -31485,13 +31637,16 @@
         <v>1401</v>
       </c>
       <c r="W27" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="X27" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1425</v>
+      </c>
+      <c r="Y27" s="114" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1243</v>
       </c>
@@ -31553,13 +31708,16 @@
         <v>1401</v>
       </c>
       <c r="W28" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="X28" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1428</v>
+      </c>
+      <c r="Y28" s="114" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1243</v>
       </c>
@@ -31570,16 +31728,19 @@
         <v>2012</v>
       </c>
       <c r="D29" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="W29" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="X29" t="s">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="19" x14ac:dyDescent="0.2">
+        <v>1453</v>
+      </c>
+      <c r="Y29" s="114" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1243</v>
       </c>
@@ -31590,7 +31751,7 @@
         <v>2016</v>
       </c>
       <c r="D30" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
@@ -31599,13 +31760,16 @@
         <v>1390</v>
       </c>
       <c r="W30" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="X30" s="112" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1449</v>
+      </c>
+      <c r="Y30" s="114" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1243</v>
       </c>
@@ -31670,13 +31834,16 @@
         <v>1382</v>
       </c>
       <c r="W31" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="X31" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1443</v>
+      </c>
+      <c r="Y31" s="114" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1243</v>
       </c>
@@ -31739,13 +31906,16 @@
         <v>1401</v>
       </c>
       <c r="W32" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="X32" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+        <v>1429</v>
+      </c>
+      <c r="Y32" s="114" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1243</v>
       </c>
@@ -31766,13 +31936,16 @@
         <v>1385</v>
       </c>
       <c r="W33" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="X33" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1447</v>
+      </c>
+      <c r="Y33" s="114" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1243</v>
       </c>
@@ -31831,10 +32004,13 @@
         <v>1382</v>
       </c>
       <c r="W34" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="X34" t="s">
-        <v>1441</v>
+        <v>1438</v>
+      </c>
+      <c r="Y34" s="114" t="s">
+        <v>1156</v>
       </c>
     </row>
   </sheetData>
